--- a/奨学金返金書類/（２）a H30様式1-2 業績一覧表.xlsx
+++ b/奨学金返金書類/（２）a H30様式1-2 業績一覧表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\adm.u-tokyo.ac.jp\user\home\1238514778\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/奨学金返金書類/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A61A91-B1FE-A84F-8D29-DD5D78FB1947}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" tabRatio="853" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="業績一覧表（博士課程） (記入方法)" sheetId="3" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
   <si>
     <t>研究科名・専攻名</t>
     <rPh sb="0" eb="2">
@@ -1856,12 +1857,52 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>35-176043</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小松原望</t>
+    <rPh sb="0" eb="1">
+      <t>ノゾm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理学系研究科・物理学専攻</t>
+    <rPh sb="0" eb="6">
+      <t>・</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学位論文「InGaAs系高利得量子井戸半導体レーザーの開発及び評価測定」 2019年1月</t>
+    <rPh sb="0" eb="4">
+      <t>「</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本研究科設置の授業科目において全ての科目で「優」をおさめた。</t>
+    <rPh sb="0" eb="1">
+      <t>ホn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2013,6 +2054,13 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2767,7 +2815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2893,9 +2941,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3121,216 +3166,216 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3339,6 +3384,33 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3728,19 +3800,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK83"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:AD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="3.125" style="1"/>
+    <col min="1" max="16384" width="3.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" ht="1.5" customHeight="1">
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -3771,89 +3843,89 @@
       <c r="AC1" s="15"/>
       <c r="AD1" s="15"/>
     </row>
-    <row r="2" spans="1:37" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:37" ht="24.75" customHeight="1">
+      <c r="A2" s="49" t="s">
         <v>65</v>
       </c>
       <c r="AA2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="119" t="s">
+    <row r="3" spans="1:37" ht="29.25" customHeight="1">
+      <c r="A3" s="184" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="120"/>
-      <c r="AD3" s="120"/>
-    </row>
-    <row r="4" spans="1:37" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="139" t="s">
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="185"/>
+      <c r="U3" s="185"/>
+      <c r="V3" s="185"/>
+      <c r="W3" s="185"/>
+      <c r="X3" s="185"/>
+      <c r="Y3" s="185"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="185"/>
+      <c r="AB3" s="185"/>
+      <c r="AC3" s="185"/>
+      <c r="AD3" s="185"/>
+    </row>
+    <row r="4" spans="1:37" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A4" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="140"/>
-      <c r="R4" s="140"/>
-      <c r="S4" s="140"/>
-      <c r="T4" s="140"/>
-      <c r="U4" s="140"/>
-      <c r="V4" s="140"/>
-      <c r="W4" s="140"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="140"/>
-      <c r="Z4" s="140"/>
-      <c r="AA4" s="140"/>
-      <c r="AB4" s="140"/>
-      <c r="AC4" s="140"/>
-      <c r="AD4" s="140"/>
-    </row>
-    <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="121" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="187"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="187"/>
+      <c r="Q4" s="187"/>
+      <c r="R4" s="187"/>
+      <c r="S4" s="187"/>
+      <c r="T4" s="187"/>
+      <c r="U4" s="187"/>
+      <c r="V4" s="187"/>
+      <c r="W4" s="187"/>
+      <c r="X4" s="187"/>
+      <c r="Y4" s="187"/>
+      <c r="Z4" s="187"/>
+      <c r="AA4" s="187"/>
+      <c r="AB4" s="187"/>
+      <c r="AC4" s="187"/>
+      <c r="AD4" s="187"/>
+    </row>
+    <row r="5" spans="1:37" ht="30" customHeight="1">
+      <c r="A5" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="123"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="154"/>
       <c r="E5" s="4">
         <v>6</v>
       </c>
@@ -3871,280 +3943,280 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="124" t="s">
+      <c r="P5" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="128"/>
-    </row>
-    <row r="6" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="129" t="s">
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="156"/>
+      <c r="T5" s="156"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
+      <c r="X5" s="158"/>
+      <c r="Y5" s="158"/>
+      <c r="Z5" s="158"/>
+      <c r="AA5" s="158"/>
+      <c r="AB5" s="158"/>
+      <c r="AC5" s="158"/>
+      <c r="AD5" s="159"/>
+    </row>
+    <row r="6" spans="1:37" ht="30" customHeight="1" thickBot="1">
+      <c r="A6" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="135" t="s">
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="Q6" s="136"/>
-      <c r="R6" s="136"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="136"/>
-      <c r="U6" s="137"/>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133"/>
-      <c r="AA6" s="133"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="138"/>
-    </row>
-    <row r="7" spans="1:37" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="143"/>
+      <c r="AA6" s="143"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="143"/>
+      <c r="AD6" s="148"/>
+    </row>
+    <row r="7" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A7" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="69"/>
-    </row>
-    <row r="8" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="156" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68"/>
+    </row>
+    <row r="8" spans="1:37" ht="19.5" customHeight="1">
+      <c r="A8" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="157"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="72" t="s">
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="154" t="s">
+      <c r="G8" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="155"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="70" t="s">
+      <c r="H8" s="180"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="141" t="s">
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="AB8" s="142"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="143"/>
-      <c r="AK8" s="80"/>
-    </row>
-    <row r="9" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="101"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="103" t="s">
+      <c r="AB8" s="150"/>
+      <c r="AC8" s="150"/>
+      <c r="AD8" s="151"/>
+      <c r="AK8" s="79"/>
+    </row>
+    <row r="9" spans="1:37" ht="19.5" customHeight="1">
+      <c r="A9" s="100"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="103"/>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="104"/>
-      <c r="AD9" s="105"/>
-      <c r="AK9" s="80"/>
-    </row>
-    <row r="10" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="144"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="145"/>
-      <c r="N10" s="145"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="145"/>
-      <c r="Q10" s="145"/>
-      <c r="R10" s="145"/>
-      <c r="S10" s="145"/>
-      <c r="T10" s="145"/>
-      <c r="U10" s="145"/>
-      <c r="V10" s="145"/>
-      <c r="W10" s="145"/>
-      <c r="X10" s="145"/>
-      <c r="Y10" s="145"/>
-      <c r="Z10" s="146"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="104"/>
+      <c r="AK9" s="79"/>
+    </row>
+    <row r="10" spans="1:37" ht="19.5" customHeight="1">
+      <c r="A10" s="170"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="171"/>
+      <c r="Q10" s="171"/>
+      <c r="R10" s="171"/>
+      <c r="S10" s="171"/>
+      <c r="T10" s="171"/>
+      <c r="U10" s="171"/>
+      <c r="V10" s="171"/>
+      <c r="W10" s="171"/>
+      <c r="X10" s="171"/>
+      <c r="Y10" s="171"/>
+      <c r="Z10" s="172"/>
       <c r="AA10" s="31"/>
       <c r="AB10" s="30"/>
       <c r="AC10" s="30"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="117" t="s">
+    <row r="11" spans="1:37" ht="22.5" customHeight="1">
+      <c r="A11" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="147" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="149" t="s">
+      <c r="X11" s="174"/>
+      <c r="Y11" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="Z11" s="150"/>
-      <c r="AA11" s="151" t="s">
+      <c r="Z11" s="176"/>
+      <c r="AA11" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB11" s="152"/>
-      <c r="AC11" s="152"/>
-      <c r="AD11" s="153"/>
-    </row>
-    <row r="12" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="182" t="s">
+      <c r="AB11" s="177"/>
+      <c r="AC11" s="177"/>
+      <c r="AD11" s="178"/>
+    </row>
+    <row r="12" spans="1:37" ht="19.5" customHeight="1">
+      <c r="A12" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="183"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="183"/>
-      <c r="P12" s="183"/>
-      <c r="Q12" s="183"/>
-      <c r="R12" s="183"/>
-      <c r="S12" s="183"/>
-      <c r="T12" s="183"/>
-      <c r="U12" s="183"/>
-      <c r="V12" s="183"/>
-      <c r="W12" s="183"/>
-      <c r="X12" s="183"/>
-      <c r="Y12" s="183"/>
-      <c r="Z12" s="183"/>
-      <c r="AA12" s="183"/>
-      <c r="AB12" s="183"/>
-      <c r="AC12" s="183"/>
-      <c r="AD12" s="184"/>
-    </row>
-    <row r="13" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="119"/>
+      <c r="V12" s="119"/>
+      <c r="W12" s="119"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="119"/>
+      <c r="AB12" s="119"/>
+      <c r="AC12" s="119"/>
+      <c r="AD12" s="120"/>
+    </row>
+    <row r="13" spans="1:37" ht="19.5" customHeight="1">
       <c r="A13" s="27" t="s">
         <v>20</v>
       </c>
@@ -4168,67 +4240,67 @@
       <c r="S13" s="33"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="159"/>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="174"/>
-      <c r="Z13" s="180"/>
-      <c r="AA13" s="174"/>
-      <c r="AB13" s="175"/>
-      <c r="AC13" s="175"/>
-      <c r="AD13" s="176"/>
-    </row>
-    <row r="14" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="84" t="s">
+      <c r="V13" s="57"/>
+      <c r="W13" s="160"/>
+      <c r="X13" s="161"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="123"/>
+      <c r="AC13" s="123"/>
+      <c r="AD13" s="124"/>
+    </row>
+    <row r="14" spans="1:37" ht="19.5" customHeight="1">
+      <c r="A14" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="161" t="s">
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="X14" s="162"/>
-      <c r="Y14" s="174"/>
-      <c r="Z14" s="180"/>
-      <c r="AA14" s="174"/>
-      <c r="AB14" s="175"/>
-      <c r="AC14" s="175"/>
-      <c r="AD14" s="176"/>
-    </row>
-    <row r="15" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X14" s="126"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="122"/>
+      <c r="AA14" s="121"/>
+      <c r="AB14" s="123"/>
+      <c r="AC14" s="123"/>
+      <c r="AD14" s="124"/>
+    </row>
+    <row r="15" spans="1:37" ht="19.5" customHeight="1">
       <c r="A15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
@@ -4238,24 +4310,24 @@
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="83"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="82"/>
       <c r="Y15" s="28"/>
-      <c r="Z15" s="91"/>
+      <c r="Z15" s="90"/>
       <c r="AA15" s="28"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="90"/>
-    </row>
-    <row r="16" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="88"/>
+      <c r="AD15" s="89"/>
+    </row>
+    <row r="16" spans="1:37" ht="19.5" customHeight="1">
       <c r="A16" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="51"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
@@ -4272,31 +4344,31 @@
       <c r="S16" s="33"/>
       <c r="T16" s="33"/>
       <c r="U16" s="33"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="159"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="174"/>
-      <c r="Z16" s="180"/>
-      <c r="AA16" s="174"/>
-      <c r="AB16" s="175"/>
-      <c r="AC16" s="175"/>
-      <c r="AD16" s="176"/>
-    </row>
-    <row r="17" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="84" t="s">
+      <c r="V16" s="57"/>
+      <c r="W16" s="160"/>
+      <c r="X16" s="161"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="122"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="123"/>
+      <c r="AC16" s="123"/>
+      <c r="AD16" s="124"/>
+    </row>
+    <row r="17" spans="1:30" ht="19.5" customHeight="1">
+      <c r="A17" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
       <c r="O17" s="33"/>
@@ -4306,87 +4378,87 @@
       <c r="S17" s="33"/>
       <c r="T17" s="33"/>
       <c r="U17" s="33"/>
-      <c r="V17" s="88"/>
-      <c r="W17" s="161" t="s">
+      <c r="V17" s="87"/>
+      <c r="W17" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="X17" s="162"/>
-      <c r="Y17" s="174"/>
-      <c r="Z17" s="180"/>
-      <c r="AA17" s="174"/>
-      <c r="AB17" s="175"/>
-      <c r="AC17" s="175"/>
-      <c r="AD17" s="176"/>
-    </row>
-    <row r="18" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="111" t="s">
+      <c r="X17" s="126"/>
+      <c r="Y17" s="121"/>
+      <c r="Z17" s="122"/>
+      <c r="AA17" s="121"/>
+      <c r="AB17" s="123"/>
+      <c r="AC17" s="123"/>
+      <c r="AD17" s="124"/>
+    </row>
+    <row r="18" spans="1:30" ht="19.5" customHeight="1">
+      <c r="A18" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="115"/>
-      <c r="X18" s="116"/>
-      <c r="Y18" s="171"/>
-      <c r="Z18" s="181"/>
-      <c r="AA18" s="171"/>
-      <c r="AB18" s="172"/>
-      <c r="AC18" s="172"/>
-      <c r="AD18" s="173"/>
-    </row>
-    <row r="19" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="182" t="s">
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="115"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="128"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="168"/>
+      <c r="AC18" s="168"/>
+      <c r="AD18" s="169"/>
+    </row>
+    <row r="19" spans="1:30" ht="19.5" customHeight="1">
+      <c r="A19" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="183"/>
-      <c r="M19" s="183"/>
-      <c r="N19" s="183"/>
-      <c r="O19" s="183"/>
-      <c r="P19" s="183"/>
-      <c r="Q19" s="183"/>
-      <c r="R19" s="183"/>
-      <c r="S19" s="183"/>
-      <c r="T19" s="183"/>
-      <c r="U19" s="183"/>
-      <c r="V19" s="183"/>
-      <c r="W19" s="183"/>
-      <c r="X19" s="183"/>
-      <c r="Y19" s="183"/>
-      <c r="Z19" s="183"/>
-      <c r="AA19" s="183"/>
-      <c r="AB19" s="183"/>
-      <c r="AC19" s="183"/>
-      <c r="AD19" s="184"/>
-    </row>
-    <row r="20" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="119"/>
+      <c r="Z19" s="119"/>
+      <c r="AA19" s="119"/>
+      <c r="AB19" s="119"/>
+      <c r="AC19" s="119"/>
+      <c r="AD19" s="120"/>
+    </row>
+    <row r="20" spans="1:30" ht="19.5" customHeight="1">
       <c r="A20" s="27" t="s">
         <v>20</v>
       </c>
@@ -4412,16 +4484,16 @@
       <c r="U20" s="30"/>
       <c r="V20" s="30"/>
       <c r="W20" s="30"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="174"/>
-      <c r="Z20" s="180"/>
-      <c r="AA20" s="174"/>
-      <c r="AB20" s="175"/>
-      <c r="AC20" s="175"/>
-      <c r="AD20" s="176"/>
-    </row>
-    <row r="21" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="84" t="s">
+      <c r="X20" s="52"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="123"/>
+      <c r="AC20" s="123"/>
+      <c r="AD20" s="124"/>
+    </row>
+    <row r="21" spans="1:30" ht="19.5" customHeight="1">
+      <c r="A21" s="83" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="30"/>
@@ -4446,17 +4518,17 @@
       <c r="U21" s="30"/>
       <c r="V21" s="30"/>
       <c r="W21" s="30"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="161" t="s">
+      <c r="X21" s="52"/>
+      <c r="Y21" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="Z21" s="162"/>
-      <c r="AA21" s="174"/>
-      <c r="AB21" s="175"/>
-      <c r="AC21" s="175"/>
-      <c r="AD21" s="176"/>
-    </row>
-    <row r="22" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z21" s="126"/>
+      <c r="AA21" s="121"/>
+      <c r="AB21" s="123"/>
+      <c r="AC21" s="123"/>
+      <c r="AD21" s="124"/>
+    </row>
+    <row r="22" spans="1:30" ht="19.5" customHeight="1">
       <c r="A22" s="27" t="s">
         <v>48</v>
       </c>
@@ -4482,23 +4554,23 @@
       <c r="U22" s="30"/>
       <c r="V22" s="30"/>
       <c r="W22" s="30"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="174"/>
-      <c r="Z22" s="180"/>
-      <c r="AA22" s="174"/>
-      <c r="AB22" s="175"/>
-      <c r="AC22" s="175"/>
-      <c r="AD22" s="176"/>
-    </row>
-    <row r="23" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="84" t="s">
+      <c r="X22" s="52"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="122"/>
+      <c r="AA22" s="121"/>
+      <c r="AB22" s="123"/>
+      <c r="AC22" s="123"/>
+      <c r="AD22" s="124"/>
+    </row>
+    <row r="23" spans="1:30" ht="19.5" customHeight="1">
+      <c r="A23" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="98"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
@@ -4516,23 +4588,23 @@
       <c r="U23" s="22"/>
       <c r="V23" s="22"/>
       <c r="W23" s="22"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="174"/>
-      <c r="Z23" s="180"/>
-      <c r="AA23" s="174"/>
-      <c r="AB23" s="175"/>
-      <c r="AC23" s="175"/>
-      <c r="AD23" s="176"/>
-    </row>
-    <row r="24" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X23" s="51"/>
+      <c r="Y23" s="121"/>
+      <c r="Z23" s="122"/>
+      <c r="AA23" s="121"/>
+      <c r="AB23" s="123"/>
+      <c r="AC23" s="123"/>
+      <c r="AD23" s="124"/>
+    </row>
+    <row r="24" spans="1:30" ht="19.5" customHeight="1">
       <c r="A24" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
@@ -4550,20 +4622,20 @@
       <c r="U24" s="33"/>
       <c r="V24" s="33"/>
       <c r="W24" s="30"/>
-      <c r="X24" s="53"/>
+      <c r="X24" s="52"/>
       <c r="Y24" s="31"/>
-      <c r="Z24" s="93"/>
+      <c r="Z24" s="92"/>
       <c r="AA24" s="31"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="94"/>
-      <c r="AD24" s="95"/>
-    </row>
-    <row r="25" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="93"/>
+      <c r="AD24" s="94"/>
+    </row>
+    <row r="25" spans="1:30" ht="19.5" customHeight="1">
       <c r="A25" s="38"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
@@ -4581,50 +4653,50 @@
       <c r="T25" s="33"/>
       <c r="U25" s="33"/>
       <c r="V25" s="33"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="185"/>
-      <c r="Z25" s="186"/>
-      <c r="AA25" s="185"/>
-      <c r="AB25" s="187"/>
-      <c r="AC25" s="187"/>
-      <c r="AD25" s="188"/>
-    </row>
-    <row r="26" spans="1:30" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="163" t="s">
+      <c r="W25" s="55"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="138"/>
+      <c r="Z25" s="139"/>
+      <c r="AA25" s="138"/>
+      <c r="AB25" s="140"/>
+      <c r="AC25" s="140"/>
+      <c r="AD25" s="141"/>
+    </row>
+    <row r="26" spans="1:30" ht="66.75" customHeight="1">
+      <c r="A26" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="164"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="164"/>
-      <c r="L26" s="164"/>
-      <c r="M26" s="164"/>
-      <c r="N26" s="164"/>
-      <c r="O26" s="164"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="164"/>
-      <c r="R26" s="164"/>
-      <c r="S26" s="164"/>
-      <c r="T26" s="164"/>
-      <c r="U26" s="164"/>
-      <c r="V26" s="164"/>
-      <c r="W26" s="165"/>
-      <c r="X26" s="165"/>
-      <c r="Y26" s="164"/>
-      <c r="Z26" s="164"/>
-      <c r="AA26" s="166"/>
-      <c r="AB26" s="166"/>
-      <c r="AC26" s="166"/>
-      <c r="AD26" s="167"/>
-    </row>
-    <row r="27" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="163"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="163"/>
+      <c r="Q26" s="163"/>
+      <c r="R26" s="163"/>
+      <c r="S26" s="163"/>
+      <c r="T26" s="163"/>
+      <c r="U26" s="163"/>
+      <c r="V26" s="163"/>
+      <c r="W26" s="164"/>
+      <c r="X26" s="164"/>
+      <c r="Y26" s="163"/>
+      <c r="Z26" s="163"/>
+      <c r="AA26" s="165"/>
+      <c r="AB26" s="165"/>
+      <c r="AC26" s="165"/>
+      <c r="AD26" s="166"/>
+    </row>
+    <row r="27" spans="1:30" ht="19.5" customHeight="1">
       <c r="A27" s="38" t="s">
         <v>36</v>
       </c>
@@ -4651,14 +4723,14 @@
       <c r="V27" s="33"/>
       <c r="W27" s="33"/>
       <c r="X27" s="33"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
       <c r="AA27" s="33"/>
       <c r="AB27" s="33"/>
       <c r="AC27" s="33"/>
       <c r="AD27" s="34"/>
     </row>
-    <row r="28" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:30" ht="19.5" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -4690,7 +4762,7 @@
       <c r="AC28" s="22"/>
       <c r="AD28" s="23"/>
     </row>
-    <row r="29" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:30" ht="19.5" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -4722,7 +4794,7 @@
       <c r="AC29" s="22"/>
       <c r="AD29" s="23"/>
     </row>
-    <row r="30" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:30" ht="19.5" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -4747,14 +4819,14 @@
       <c r="V30" s="22"/>
       <c r="W30" s="22"/>
       <c r="X30" s="22"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
       <c r="AA30" s="22"/>
       <c r="AB30" s="22"/>
       <c r="AC30" s="22"/>
       <c r="AD30" s="23"/>
     </row>
-    <row r="31" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:30" ht="19.5" customHeight="1">
       <c r="A31" s="39" t="s">
         <v>53</v>
       </c>
@@ -4783,12 +4855,12 @@
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
       <c r="Z31" s="35"/>
-      <c r="AA31" s="168"/>
-      <c r="AB31" s="169"/>
-      <c r="AC31" s="169"/>
-      <c r="AD31" s="170"/>
-    </row>
-    <row r="32" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA31" s="167"/>
+      <c r="AB31" s="130"/>
+      <c r="AC31" s="130"/>
+      <c r="AD31" s="131"/>
+    </row>
+    <row r="32" spans="1:30" ht="19.5" customHeight="1">
       <c r="A32" s="38" t="s">
         <v>44</v>
       </c>
@@ -4817,12 +4889,12 @@
       <c r="X32" s="33"/>
       <c r="Y32" s="33"/>
       <c r="Z32" s="33"/>
-      <c r="AA32" s="55"/>
+      <c r="AA32" s="54"/>
       <c r="AB32" s="33"/>
       <c r="AC32" s="33"/>
       <c r="AD32" s="34"/>
     </row>
-    <row r="33" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:30" ht="19.5" customHeight="1">
       <c r="A33" s="27" t="s">
         <v>45</v>
       </c>
@@ -4851,12 +4923,12 @@
       <c r="X33" s="22"/>
       <c r="Y33" s="22"/>
       <c r="Z33" s="22"/>
-      <c r="AA33" s="56"/>
+      <c r="AA33" s="55"/>
       <c r="AB33" s="22"/>
       <c r="AC33" s="22"/>
       <c r="AD33" s="23"/>
     </row>
-    <row r="34" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:30" ht="19.5" customHeight="1">
       <c r="A34" s="39" t="s">
         <v>54</v>
       </c>
@@ -4885,12 +4957,12 @@
       <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
       <c r="Z34" s="35"/>
-      <c r="AA34" s="168"/>
-      <c r="AB34" s="169"/>
-      <c r="AC34" s="169"/>
-      <c r="AD34" s="170"/>
-    </row>
-    <row r="35" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA34" s="167"/>
+      <c r="AB34" s="130"/>
+      <c r="AC34" s="130"/>
+      <c r="AD34" s="131"/>
+    </row>
+    <row r="35" spans="1:30" ht="19.5" customHeight="1">
       <c r="A35" s="38" t="s">
         <v>46</v>
       </c>
@@ -4919,12 +4991,12 @@
       <c r="X35" s="33"/>
       <c r="Y35" s="33"/>
       <c r="Z35" s="33"/>
-      <c r="AA35" s="55"/>
+      <c r="AA35" s="54"/>
       <c r="AB35" s="33"/>
       <c r="AC35" s="33"/>
       <c r="AD35" s="34"/>
     </row>
-    <row r="36" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:30" ht="19.5" customHeight="1">
       <c r="A36" s="27" t="s">
         <v>45</v>
       </c>
@@ -4953,12 +5025,12 @@
       <c r="X36" s="22"/>
       <c r="Y36" s="22"/>
       <c r="Z36" s="22"/>
-      <c r="AA36" s="56"/>
+      <c r="AA36" s="55"/>
       <c r="AB36" s="22"/>
       <c r="AC36" s="22"/>
       <c r="AD36" s="23"/>
     </row>
-    <row r="37" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:30" ht="19.5" customHeight="1">
       <c r="A37" s="39" t="s">
         <v>55</v>
       </c>
@@ -4987,14 +5059,14 @@
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
       <c r="Z37" s="35"/>
-      <c r="AA37" s="151" t="s">
+      <c r="AA37" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB37" s="169"/>
-      <c r="AC37" s="169"/>
-      <c r="AD37" s="170"/>
-    </row>
-    <row r="38" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB37" s="130"/>
+      <c r="AC37" s="130"/>
+      <c r="AD37" s="131"/>
+    </row>
+    <row r="38" spans="1:30" ht="19.5" customHeight="1">
       <c r="A38" s="27"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -5026,7 +5098,7 @@
       <c r="AC38" s="22"/>
       <c r="AD38" s="23"/>
     </row>
-    <row r="39" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:30" ht="19.5" customHeight="1">
       <c r="A39" s="14"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -5058,7 +5130,7 @@
       <c r="AC39" s="22"/>
       <c r="AD39" s="23"/>
     </row>
-    <row r="40" spans="1:30" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="19.5" customHeight="1" thickBot="1">
       <c r="A40" s="24"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -5090,7 +5162,7 @@
       <c r="AC40" s="25"/>
       <c r="AD40" s="26"/>
     </row>
-    <row r="41" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:30" ht="12" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -5122,7 +5194,7 @@
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
     </row>
-    <row r="42" spans="1:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:30" ht="7.5" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -5154,22 +5226,22 @@
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
     </row>
-    <row r="43" spans="1:30" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:30" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="50" t="s">
+    <row r="43" spans="1:30" ht="4.5" customHeight="1"/>
+    <row r="44" spans="1:30" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A44" s="49" t="s">
         <v>11</v>
       </c>
       <c r="AA44" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="121" t="s">
+    <row r="45" spans="1:30" ht="30" customHeight="1">
+      <c r="A45" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="122"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="123"/>
+      <c r="B45" s="153"/>
+      <c r="C45" s="153"/>
+      <c r="D45" s="154"/>
       <c r="E45" s="4">
         <v>6</v>
       </c>
@@ -5187,132 +5259,132 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="10"/>
-      <c r="P45" s="124" t="s">
+      <c r="P45" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="Q45" s="125"/>
-      <c r="R45" s="125"/>
-      <c r="S45" s="125"/>
-      <c r="T45" s="125"/>
-      <c r="U45" s="126"/>
-      <c r="V45" s="127"/>
-      <c r="W45" s="127"/>
-      <c r="X45" s="127"/>
-      <c r="Y45" s="127"/>
-      <c r="Z45" s="127"/>
-      <c r="AA45" s="127"/>
-      <c r="AB45" s="127"/>
-      <c r="AC45" s="127"/>
-      <c r="AD45" s="128"/>
-    </row>
-    <row r="46" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="129" t="s">
+      <c r="Q45" s="156"/>
+      <c r="R45" s="156"/>
+      <c r="S45" s="156"/>
+      <c r="T45" s="156"/>
+      <c r="U45" s="157"/>
+      <c r="V45" s="158"/>
+      <c r="W45" s="158"/>
+      <c r="X45" s="158"/>
+      <c r="Y45" s="158"/>
+      <c r="Z45" s="158"/>
+      <c r="AA45" s="158"/>
+      <c r="AB45" s="158"/>
+      <c r="AC45" s="158"/>
+      <c r="AD45" s="159"/>
+    </row>
+    <row r="46" spans="1:30" ht="30" customHeight="1" thickBot="1">
+      <c r="A46" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="130"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="131"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="133"/>
-      <c r="L46" s="133"/>
-      <c r="M46" s="133"/>
-      <c r="N46" s="133"/>
-      <c r="O46" s="134"/>
-      <c r="P46" s="135" t="s">
+      <c r="B46" s="136"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
+      <c r="J46" s="143"/>
+      <c r="K46" s="143"/>
+      <c r="L46" s="143"/>
+      <c r="M46" s="143"/>
+      <c r="N46" s="143"/>
+      <c r="O46" s="144"/>
+      <c r="P46" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="Q46" s="136"/>
-      <c r="R46" s="136"/>
-      <c r="S46" s="136"/>
-      <c r="T46" s="136"/>
-      <c r="U46" s="137"/>
-      <c r="V46" s="133"/>
-      <c r="W46" s="133"/>
-      <c r="X46" s="133"/>
-      <c r="Y46" s="133"/>
-      <c r="Z46" s="133"/>
-      <c r="AA46" s="133"/>
-      <c r="AB46" s="133"/>
-      <c r="AC46" s="133"/>
-      <c r="AD46" s="138"/>
-    </row>
-    <row r="47" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="44" t="s">
+      <c r="Q46" s="146"/>
+      <c r="R46" s="146"/>
+      <c r="S46" s="146"/>
+      <c r="T46" s="146"/>
+      <c r="U46" s="147"/>
+      <c r="V46" s="143"/>
+      <c r="W46" s="143"/>
+      <c r="X46" s="143"/>
+      <c r="Y46" s="143"/>
+      <c r="Z46" s="143"/>
+      <c r="AA46" s="143"/>
+      <c r="AB46" s="143"/>
+      <c r="AC46" s="143"/>
+      <c r="AD46" s="148"/>
+    </row>
+    <row r="47" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A47" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="45"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="45"/>
-      <c r="Z47" s="45"/>
-      <c r="AA47" s="141" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
+      <c r="AA47" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="AB47" s="142"/>
-      <c r="AC47" s="142"/>
-      <c r="AD47" s="143"/>
-    </row>
-    <row r="48" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="100" t="s">
+      <c r="AB47" s="150"/>
+      <c r="AC47" s="150"/>
+      <c r="AD47" s="151"/>
+    </row>
+    <row r="48" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A48" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="47"/>
-      <c r="T48" s="47"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="47"/>
-      <c r="X48" s="47"/>
-      <c r="Y48" s="47"/>
-      <c r="Z48" s="47"/>
-      <c r="AA48" s="48"/>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="47"/>
-      <c r="AD48" s="49"/>
-    </row>
-    <row r="49" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="99" t="s">
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="46"/>
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="48"/>
+    </row>
+    <row r="49" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A49" s="98" t="s">
         <v>34</v>
       </c>
       <c r="B49" s="17"/>
@@ -5345,7 +5417,7 @@
       <c r="AC49" s="17"/>
       <c r="AD49" s="18"/>
     </row>
-    <row r="50" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:30" ht="20.25" customHeight="1">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -5377,7 +5449,7 @@
       <c r="AC50" s="17"/>
       <c r="AD50" s="18"/>
     </row>
-    <row r="51" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:30" ht="20.25" customHeight="1">
       <c r="A51" s="16"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -5409,7 +5481,7 @@
       <c r="AC51" s="17"/>
       <c r="AD51" s="18"/>
     </row>
-    <row r="52" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:30" ht="20.25" customHeight="1">
       <c r="A52" s="16"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -5441,7 +5513,7 @@
       <c r="AC52" s="17"/>
       <c r="AD52" s="18"/>
     </row>
-    <row r="53" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:30" ht="20.25" customHeight="1">
       <c r="A53" s="16"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -5473,8 +5545,8 @@
       <c r="AC53" s="17"/>
       <c r="AD53" s="18"/>
     </row>
-    <row r="54" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="57" t="s">
+    <row r="54" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A54" s="56" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="35"/>
@@ -5502,14 +5574,14 @@
       <c r="X54" s="35"/>
       <c r="Y54" s="35"/>
       <c r="Z54" s="35"/>
-      <c r="AA54" s="151" t="s">
+      <c r="AA54" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB54" s="169"/>
-      <c r="AC54" s="169"/>
-      <c r="AD54" s="170"/>
-    </row>
-    <row r="55" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB54" s="130"/>
+      <c r="AC54" s="130"/>
+      <c r="AD54" s="131"/>
+    </row>
+    <row r="55" spans="1:30" ht="20.25" customHeight="1">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -5541,7 +5613,7 @@
       <c r="AC55" s="17"/>
       <c r="AD55" s="18"/>
     </row>
-    <row r="56" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:30" ht="20.25" customHeight="1">
       <c r="A56" s="14"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -5573,8 +5645,8 @@
       <c r="AC56" s="22"/>
       <c r="AD56" s="23"/>
     </row>
-    <row r="57" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="57" t="s">
+    <row r="57" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A57" s="56" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="35"/>
@@ -5602,14 +5674,14 @@
       <c r="X57" s="35"/>
       <c r="Y57" s="35"/>
       <c r="Z57" s="35"/>
-      <c r="AA57" s="151" t="s">
+      <c r="AA57" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB57" s="169"/>
-      <c r="AC57" s="169"/>
-      <c r="AD57" s="170"/>
-    </row>
-    <row r="58" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB57" s="130"/>
+      <c r="AC57" s="130"/>
+      <c r="AD57" s="131"/>
+    </row>
+    <row r="58" spans="1:30" ht="20.25" customHeight="1">
       <c r="A58" s="27"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -5641,7 +5713,7 @@
       <c r="AC58" s="22"/>
       <c r="AD58" s="23"/>
     </row>
-    <row r="59" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:30" ht="20.25" customHeight="1">
       <c r="A59" s="16"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -5673,7 +5745,7 @@
       <c r="AC59" s="17"/>
       <c r="AD59" s="18"/>
     </row>
-    <row r="60" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:30" ht="20.25" customHeight="1">
       <c r="A60" s="16"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -5705,7 +5777,7 @@
       <c r="AC60" s="17"/>
       <c r="AD60" s="18"/>
     </row>
-    <row r="61" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:30" ht="20.25" customHeight="1">
       <c r="A61" s="16"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -5737,7 +5809,7 @@
       <c r="AC61" s="17"/>
       <c r="AD61" s="18"/>
     </row>
-    <row r="62" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:30" ht="20.25" customHeight="1">
       <c r="A62" s="14"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -5769,7 +5841,7 @@
       <c r="AC62" s="22"/>
       <c r="AD62" s="23"/>
     </row>
-    <row r="63" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:30" ht="20.25" customHeight="1">
       <c r="A63" s="39" t="s">
         <v>59</v>
       </c>
@@ -5798,14 +5870,14 @@
       <c r="X63" s="35"/>
       <c r="Y63" s="35"/>
       <c r="Z63" s="35"/>
-      <c r="AA63" s="151" t="s">
+      <c r="AA63" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB63" s="169"/>
-      <c r="AC63" s="169"/>
-      <c r="AD63" s="170"/>
-    </row>
-    <row r="64" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB63" s="130"/>
+      <c r="AC63" s="130"/>
+      <c r="AD63" s="131"/>
+    </row>
+    <row r="64" spans="1:30" ht="20.25" customHeight="1">
       <c r="A64" s="27" t="s">
         <v>28</v>
       </c>
@@ -5839,8 +5911,8 @@
       <c r="AC64" s="22"/>
       <c r="AD64" s="23"/>
     </row>
-    <row r="65" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="99" t="s">
+    <row r="65" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A65" s="98" t="s">
         <v>30</v>
       </c>
       <c r="B65" s="17"/>
@@ -5873,8 +5945,8 @@
       <c r="AC65" s="17"/>
       <c r="AD65" s="18"/>
     </row>
-    <row r="66" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="99" t="s">
+    <row r="66" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A66" s="98" t="s">
         <v>31</v>
       </c>
       <c r="B66" s="17"/>
@@ -5907,7 +5979,7 @@
       <c r="AC66" s="17"/>
       <c r="AD66" s="18"/>
     </row>
-    <row r="67" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:30" ht="20.25" customHeight="1">
       <c r="A67" s="16"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -5939,7 +6011,7 @@
       <c r="AC67" s="17"/>
       <c r="AD67" s="18"/>
     </row>
-    <row r="68" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:30" ht="20.25" customHeight="1">
       <c r="A68" s="16"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -5971,7 +6043,7 @@
       <c r="AC68" s="17"/>
       <c r="AD68" s="18"/>
     </row>
-    <row r="69" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:30" ht="20.25" customHeight="1">
       <c r="A69" s="14"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -6003,7 +6075,7 @@
       <c r="AC69" s="22"/>
       <c r="AD69" s="23"/>
     </row>
-    <row r="70" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:30" ht="20.25" customHeight="1">
       <c r="A70" s="39" t="s">
         <v>60</v>
       </c>
@@ -6032,14 +6104,14 @@
       <c r="X70" s="35"/>
       <c r="Y70" s="35"/>
       <c r="Z70" s="35"/>
-      <c r="AA70" s="151" t="s">
+      <c r="AA70" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB70" s="169"/>
-      <c r="AC70" s="169"/>
-      <c r="AD70" s="170"/>
-    </row>
-    <row r="71" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB70" s="130"/>
+      <c r="AC70" s="130"/>
+      <c r="AD70" s="131"/>
+    </row>
+    <row r="71" spans="1:30" ht="20.25" customHeight="1">
       <c r="A71" s="27" t="s">
         <v>29</v>
       </c>
@@ -6073,8 +6145,8 @@
       <c r="AC71" s="22"/>
       <c r="AD71" s="23"/>
     </row>
-    <row r="72" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="99" t="s">
+    <row r="72" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A72" s="98" t="s">
         <v>32</v>
       </c>
       <c r="B72" s="17"/>
@@ -6107,8 +6179,8 @@
       <c r="AC72" s="17"/>
       <c r="AD72" s="18"/>
     </row>
-    <row r="73" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="99" t="s">
+    <row r="73" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A73" s="98" t="s">
         <v>31</v>
       </c>
       <c r="B73" s="17"/>
@@ -6141,7 +6213,7 @@
       <c r="AC73" s="17"/>
       <c r="AD73" s="18"/>
     </row>
-    <row r="74" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:30" ht="20.25" customHeight="1">
       <c r="A74" s="16"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -6173,7 +6245,7 @@
       <c r="AC74" s="17"/>
       <c r="AD74" s="18"/>
     </row>
-    <row r="75" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:30" ht="20.25" customHeight="1">
       <c r="A75" s="16"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -6205,7 +6277,7 @@
       <c r="AC75" s="17"/>
       <c r="AD75" s="18"/>
     </row>
-    <row r="76" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:30" ht="20.25" customHeight="1">
       <c r="A76" s="16"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -6237,43 +6309,43 @@
       <c r="AC76" s="17"/>
       <c r="AD76" s="18"/>
     </row>
-    <row r="77" spans="1:30" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="177" t="s">
+    <row r="77" spans="1:30" ht="39" customHeight="1">
+      <c r="A77" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="B77" s="178"/>
-      <c r="C77" s="178"/>
-      <c r="D77" s="178"/>
-      <c r="E77" s="178"/>
-      <c r="F77" s="178"/>
-      <c r="G77" s="178"/>
-      <c r="H77" s="178"/>
-      <c r="I77" s="178"/>
-      <c r="J77" s="178"/>
-      <c r="K77" s="178"/>
-      <c r="L77" s="178"/>
-      <c r="M77" s="178"/>
-      <c r="N77" s="178"/>
-      <c r="O77" s="178"/>
-      <c r="P77" s="178"/>
-      <c r="Q77" s="178"/>
-      <c r="R77" s="178"/>
-      <c r="S77" s="178"/>
-      <c r="T77" s="178"/>
-      <c r="U77" s="178"/>
-      <c r="V77" s="178"/>
-      <c r="W77" s="178"/>
-      <c r="X77" s="178"/>
-      <c r="Y77" s="178"/>
-      <c r="Z77" s="179"/>
-      <c r="AA77" s="151" t="s">
+      <c r="B77" s="133"/>
+      <c r="C77" s="133"/>
+      <c r="D77" s="133"/>
+      <c r="E77" s="133"/>
+      <c r="F77" s="133"/>
+      <c r="G77" s="133"/>
+      <c r="H77" s="133"/>
+      <c r="I77" s="133"/>
+      <c r="J77" s="133"/>
+      <c r="K77" s="133"/>
+      <c r="L77" s="133"/>
+      <c r="M77" s="133"/>
+      <c r="N77" s="133"/>
+      <c r="O77" s="133"/>
+      <c r="P77" s="133"/>
+      <c r="Q77" s="133"/>
+      <c r="R77" s="133"/>
+      <c r="S77" s="133"/>
+      <c r="T77" s="133"/>
+      <c r="U77" s="133"/>
+      <c r="V77" s="133"/>
+      <c r="W77" s="133"/>
+      <c r="X77" s="133"/>
+      <c r="Y77" s="133"/>
+      <c r="Z77" s="134"/>
+      <c r="AA77" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB77" s="169"/>
-      <c r="AC77" s="169"/>
-      <c r="AD77" s="170"/>
-    </row>
-    <row r="78" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB77" s="130"/>
+      <c r="AC77" s="130"/>
+      <c r="AD77" s="131"/>
+    </row>
+    <row r="78" spans="1:30" ht="20.25" customHeight="1">
       <c r="A78" s="16"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -6305,7 +6377,7 @@
       <c r="AC78" s="17"/>
       <c r="AD78" s="18"/>
     </row>
-    <row r="79" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:30" ht="20.25" customHeight="1">
       <c r="A79" s="16"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -6337,7 +6409,7 @@
       <c r="AC79" s="17"/>
       <c r="AD79" s="18"/>
     </row>
-    <row r="80" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:30" ht="20.25" customHeight="1">
       <c r="A80" s="14"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -6369,7 +6441,7 @@
       <c r="AC80" s="13"/>
       <c r="AD80" s="12"/>
     </row>
-    <row r="81" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:30" ht="20.25" customHeight="1">
       <c r="A81" s="14"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -6401,7 +6473,7 @@
       <c r="AC81" s="13"/>
       <c r="AD81" s="12"/>
     </row>
-    <row r="82" spans="1:30" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
       <c r="A82" s="19"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -6433,21 +6505,43 @@
       <c r="AC82" s="20"/>
       <c r="AD82" s="21"/>
     </row>
-    <row r="83" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:30" ht="16.5" customHeight="1">
       <c r="A83" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A12:AD12"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="AA20:AD20"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AD21"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="A19:AD19"/>
+    <mergeCell ref="A3:AD3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AD5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:O6"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="V6:AD6"/>
+    <mergeCell ref="A4:AD4"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="A10:Z10"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AD11"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="AA37:AD37"/>
+    <mergeCell ref="AA13:AD13"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="A26:AD26"/>
+    <mergeCell ref="AA31:AD31"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="AA22:AD22"/>
+    <mergeCell ref="AA34:AD34"/>
+    <mergeCell ref="AA57:AD57"/>
+    <mergeCell ref="AA54:AD54"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="P45:U45"/>
+    <mergeCell ref="V45:AD45"/>
     <mergeCell ref="AA63:AD63"/>
     <mergeCell ref="AA70:AD70"/>
     <mergeCell ref="A77:Z77"/>
@@ -6464,41 +6558,19 @@
     <mergeCell ref="P46:U46"/>
     <mergeCell ref="V46:AD46"/>
     <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="AA57:AD57"/>
-    <mergeCell ref="AA54:AD54"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="P45:U45"/>
-    <mergeCell ref="V45:AD45"/>
+    <mergeCell ref="A12:AD12"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AA20:AD20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AD21"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="A19:AD19"/>
     <mergeCell ref="W13:X13"/>
     <mergeCell ref="W14:X14"/>
     <mergeCell ref="W16:X16"/>
-    <mergeCell ref="A26:AD26"/>
-    <mergeCell ref="AA31:AD31"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="AA22:AD22"/>
-    <mergeCell ref="AA34:AD34"/>
-    <mergeCell ref="AA37:AD37"/>
-    <mergeCell ref="AA13:AD13"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="AA16:AD16"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="A10:Z10"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AD11"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A3:AD3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="V5:AD5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:O6"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="V6:AD6"/>
-    <mergeCell ref="A4:AD4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.27559055118110237" top="0.45" bottom="0.23622047244094491" header="0.19685039370078741" footer="0.15748031496062992"/>
@@ -6508,19 +6580,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="3.125" style="1"/>
+    <col min="1" max="16384" width="3.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" ht="1.5" customHeight="1">
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -6551,55 +6623,55 @@
       <c r="AC1" s="15"/>
       <c r="AD1" s="15"/>
     </row>
-    <row r="2" spans="1:37" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:37" ht="24.75" customHeight="1">
+      <c r="A2" s="49" t="s">
         <v>66</v>
       </c>
       <c r="AA2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="139" t="s">
+    <row r="3" spans="1:37" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A3" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="140"/>
-      <c r="U3" s="140"/>
-      <c r="V3" s="140"/>
-      <c r="W3" s="140"/>
-      <c r="X3" s="140"/>
-      <c r="Y3" s="140"/>
-      <c r="Z3" s="140"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="140"/>
-      <c r="AC3" s="140"/>
-      <c r="AD3" s="140"/>
-    </row>
-    <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="121" t="s">
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="187"/>
+      <c r="T3" s="187"/>
+      <c r="U3" s="187"/>
+      <c r="V3" s="187"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="187"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="187"/>
+      <c r="AC3" s="187"/>
+      <c r="AD3" s="187"/>
+    </row>
+    <row r="4" spans="1:37" ht="30" customHeight="1">
+      <c r="A4" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="123"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="4">
         <v>6</v>
       </c>
@@ -6617,268 +6689,268 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="124" t="s">
+      <c r="P4" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="127"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="128"/>
-    </row>
-    <row r="5" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="129" t="s">
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
+      <c r="AC4" s="158"/>
+      <c r="AD4" s="159"/>
+    </row>
+    <row r="5" spans="1:37" ht="30" customHeight="1" thickBot="1">
+      <c r="A5" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="135" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="133"/>
-      <c r="AB5" s="133"/>
-      <c r="AC5" s="133"/>
-      <c r="AD5" s="138"/>
-    </row>
-    <row r="6" spans="1:37" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="147"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="148"/>
+    </row>
+    <row r="6" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A6" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="69"/>
-    </row>
-    <row r="7" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="156" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="68"/>
+    </row>
+    <row r="7" spans="1:37" ht="19.5" customHeight="1">
+      <c r="A7" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="72" t="s">
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="155"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="141" t="s">
+      <c r="H7" s="180"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="AB7" s="142"/>
-      <c r="AC7" s="142"/>
-      <c r="AD7" s="143"/>
-      <c r="AK7" s="80"/>
-    </row>
-    <row r="8" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="101"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="104"/>
-      <c r="AD8" s="105"/>
-      <c r="AK8" s="80"/>
-    </row>
-    <row r="9" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="144"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="145"/>
-      <c r="Q9" s="145"/>
-      <c r="R9" s="145"/>
-      <c r="S9" s="145"/>
-      <c r="T9" s="145"/>
-      <c r="U9" s="145"/>
-      <c r="V9" s="145"/>
-      <c r="W9" s="145"/>
-      <c r="X9" s="145"/>
-      <c r="Y9" s="145"/>
-      <c r="Z9" s="146"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="151"/>
+      <c r="AK7" s="79"/>
+    </row>
+    <row r="8" spans="1:37" ht="19.5" customHeight="1">
+      <c r="A8" s="100"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="102"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="104"/>
+      <c r="AK8" s="79"/>
+    </row>
+    <row r="9" spans="1:37" ht="19.5" customHeight="1">
+      <c r="A9" s="170"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="171"/>
+      <c r="R9" s="171"/>
+      <c r="S9" s="171"/>
+      <c r="T9" s="171"/>
+      <c r="U9" s="171"/>
+      <c r="V9" s="171"/>
+      <c r="W9" s="171"/>
+      <c r="X9" s="171"/>
+      <c r="Y9" s="171"/>
+      <c r="Z9" s="172"/>
       <c r="AA9" s="31"/>
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="118" t="s">
+    <row r="10" spans="1:37" ht="22.5" customHeight="1">
+      <c r="A10" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="147" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="149" t="s">
+      <c r="X10" s="174"/>
+      <c r="Y10" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="Z10" s="150"/>
-      <c r="AA10" s="151" t="s">
+      <c r="Z10" s="176"/>
+      <c r="AA10" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="152"/>
-      <c r="AD10" s="153"/>
-    </row>
-    <row r="11" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74" t="s">
+      <c r="AB10" s="177"/>
+      <c r="AC10" s="177"/>
+      <c r="AD10" s="178"/>
+    </row>
+    <row r="11" spans="1:37" ht="19.5" customHeight="1">
+      <c r="A11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="76"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="75"/>
       <c r="W11" s="28"/>
-      <c r="X11" s="52"/>
+      <c r="X11" s="51"/>
       <c r="Y11" s="22"/>
       <c r="Z11" s="22"/>
       <c r="AA11" s="28"/>
@@ -6886,7 +6958,7 @@
       <c r="AC11" s="22"/>
       <c r="AD11" s="23"/>
     </row>
-    <row r="12" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:37" ht="19.5" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -6908,9 +6980,9 @@
       <c r="S12" s="33"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="58"/>
+      <c r="V12" s="57"/>
       <c r="W12" s="28"/>
-      <c r="X12" s="52"/>
+      <c r="X12" s="51"/>
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
       <c r="AA12" s="28"/>
@@ -6918,11 +6990,11 @@
       <c r="AC12" s="22"/>
       <c r="AD12" s="23"/>
     </row>
-    <row r="13" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="110"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
+    <row r="13" spans="1:37" ht="19.5" customHeight="1">
+      <c r="A13" s="109"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
@@ -6940,9 +7012,9 @@
       <c r="S13" s="33"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="58"/>
+      <c r="V13" s="57"/>
       <c r="W13" s="28"/>
-      <c r="X13" s="52"/>
+      <c r="X13" s="51"/>
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
       <c r="AA13" s="28"/>
@@ -6950,7 +7022,7 @@
       <c r="AC13" s="22"/>
       <c r="AD13" s="23"/>
     </row>
-    <row r="14" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:37" ht="19.5" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -6972,9 +7044,9 @@
       <c r="S14" s="33"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="159"/>
-      <c r="X14" s="160"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="160"/>
+      <c r="X14" s="161"/>
       <c r="Y14" s="33"/>
       <c r="Z14" s="33"/>
       <c r="AA14" s="28"/>
@@ -6982,19 +7054,19 @@
       <c r="AC14" s="22"/>
       <c r="AD14" s="23"/>
     </row>
-    <row r="15" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="84"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
+    <row r="15" spans="1:37" ht="19.5" customHeight="1">
+      <c r="A15" s="83"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
       <c r="O15" s="33"/>
@@ -7004,9 +7076,9 @@
       <c r="S15" s="33"/>
       <c r="T15" s="33"/>
       <c r="U15" s="33"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="161"/>
-      <c r="X15" s="162"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="125"/>
+      <c r="X15" s="126"/>
       <c r="Y15" s="33"/>
       <c r="Z15" s="33"/>
       <c r="AA15" s="28"/>
@@ -7014,12 +7086,12 @@
       <c r="AC15" s="22"/>
       <c r="AD15" s="23"/>
     </row>
-    <row r="16" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:37" ht="19.5" customHeight="1">
       <c r="A16" s="27"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="51"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
@@ -7036,9 +7108,9 @@
       <c r="S16" s="33"/>
       <c r="T16" s="33"/>
       <c r="U16" s="33"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="159"/>
-      <c r="X16" s="160"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="160"/>
+      <c r="X16" s="161"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="33"/>
       <c r="AA16" s="28"/>
@@ -7046,31 +7118,31 @@
       <c r="AC16" s="22"/>
       <c r="AD16" s="23"/>
     </row>
-    <row r="17" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="189"/>
-      <c r="X17" s="190"/>
+    <row r="17" spans="1:30" ht="19.5" customHeight="1">
+      <c r="A17" s="76"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="188"/>
+      <c r="X17" s="189"/>
       <c r="Y17" s="30"/>
       <c r="Z17" s="30"/>
       <c r="AA17" s="31"/>
@@ -7078,8 +7150,8 @@
       <c r="AC17" s="30"/>
       <c r="AD17" s="32"/>
     </row>
-    <row r="18" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="73" t="s">
+    <row r="18" spans="1:30" ht="19.5" customHeight="1">
+      <c r="A18" s="72" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="33"/>
@@ -7103,16 +7175,16 @@
       <c r="T18" s="33"/>
       <c r="U18" s="33"/>
       <c r="V18" s="33"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="78"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="79"/>
-    </row>
-    <row r="19" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W18" s="54"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="78"/>
+    </row>
+    <row r="19" spans="1:30" ht="19.5" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -7136,7 +7208,7 @@
       <c r="U19" s="22"/>
       <c r="V19" s="22"/>
       <c r="W19" s="22"/>
-      <c r="X19" s="52"/>
+      <c r="X19" s="51"/>
       <c r="Y19" s="22"/>
       <c r="Z19" s="22"/>
       <c r="AA19" s="28"/>
@@ -7144,7 +7216,7 @@
       <c r="AC19" s="22"/>
       <c r="AD19" s="23"/>
     </row>
-    <row r="20" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:30" ht="19.5" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -7168,7 +7240,7 @@
       <c r="U20" s="22"/>
       <c r="V20" s="22"/>
       <c r="W20" s="22"/>
-      <c r="X20" s="52"/>
+      <c r="X20" s="51"/>
       <c r="Y20" s="22"/>
       <c r="Z20" s="22"/>
       <c r="AA20" s="28"/>
@@ -7176,7 +7248,7 @@
       <c r="AC20" s="22"/>
       <c r="AD20" s="23"/>
     </row>
-    <row r="21" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:30" ht="19.5" customHeight="1">
       <c r="A21" s="29"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -7200,7 +7272,7 @@
       <c r="U21" s="30"/>
       <c r="V21" s="30"/>
       <c r="W21" s="30"/>
-      <c r="X21" s="53"/>
+      <c r="X21" s="52"/>
       <c r="Y21" s="30"/>
       <c r="Z21" s="30"/>
       <c r="AA21" s="31"/>
@@ -7208,13 +7280,13 @@
       <c r="AC21" s="30"/>
       <c r="AD21" s="32"/>
     </row>
-    <row r="22" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:30" ht="19.5" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -7232,7 +7304,7 @@
       <c r="U22" s="22"/>
       <c r="V22" s="22"/>
       <c r="W22" s="22"/>
-      <c r="X22" s="52"/>
+      <c r="X22" s="51"/>
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
       <c r="AA22" s="28"/>
@@ -7240,12 +7312,12 @@
       <c r="AC22" s="22"/>
       <c r="AD22" s="23"/>
     </row>
-    <row r="23" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
+    <row r="23" spans="1:30" ht="19.5" customHeight="1">
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
@@ -7263,50 +7335,50 @@
       <c r="T23" s="33"/>
       <c r="U23" s="33"/>
       <c r="V23" s="33"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="65"/>
-    </row>
-    <row r="24" spans="1:30" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="163" t="s">
+      <c r="W23" s="55"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="64"/>
+    </row>
+    <row r="24" spans="1:30" ht="66.75" customHeight="1">
+      <c r="A24" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="164"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="164"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="164"/>
-      <c r="N24" s="164"/>
-      <c r="O24" s="164"/>
-      <c r="P24" s="164"/>
-      <c r="Q24" s="164"/>
-      <c r="R24" s="164"/>
-      <c r="S24" s="164"/>
-      <c r="T24" s="164"/>
-      <c r="U24" s="164"/>
-      <c r="V24" s="164"/>
-      <c r="W24" s="165"/>
-      <c r="X24" s="165"/>
-      <c r="Y24" s="164"/>
-      <c r="Z24" s="164"/>
-      <c r="AA24" s="166"/>
-      <c r="AB24" s="166"/>
-      <c r="AC24" s="166"/>
-      <c r="AD24" s="167"/>
-    </row>
-    <row r="25" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="163"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="163"/>
+      <c r="R24" s="163"/>
+      <c r="S24" s="163"/>
+      <c r="T24" s="163"/>
+      <c r="U24" s="163"/>
+      <c r="V24" s="163"/>
+      <c r="W24" s="164"/>
+      <c r="X24" s="164"/>
+      <c r="Y24" s="163"/>
+      <c r="Z24" s="163"/>
+      <c r="AA24" s="165"/>
+      <c r="AB24" s="165"/>
+      <c r="AC24" s="165"/>
+      <c r="AD24" s="166"/>
+    </row>
+    <row r="25" spans="1:30" ht="19.5" customHeight="1">
       <c r="A25" s="38"/>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -7331,14 +7403,14 @@
       <c r="V25" s="33"/>
       <c r="W25" s="33"/>
       <c r="X25" s="33"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
       <c r="AA25" s="33"/>
       <c r="AB25" s="33"/>
       <c r="AC25" s="33"/>
       <c r="AD25" s="34"/>
     </row>
-    <row r="26" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:30" ht="19.5" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -7370,7 +7442,7 @@
       <c r="AC26" s="22"/>
       <c r="AD26" s="23"/>
     </row>
-    <row r="27" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:30" ht="19.5" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -7402,7 +7474,7 @@
       <c r="AC27" s="22"/>
       <c r="AD27" s="23"/>
     </row>
-    <row r="28" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:30" ht="19.5" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -7427,14 +7499,14 @@
       <c r="V28" s="22"/>
       <c r="W28" s="22"/>
       <c r="X28" s="22"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
       <c r="AA28" s="22"/>
       <c r="AB28" s="22"/>
       <c r="AC28" s="22"/>
       <c r="AD28" s="23"/>
     </row>
-    <row r="29" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:30" ht="19.5" customHeight="1">
       <c r="A29" s="39" t="s">
         <v>53</v>
       </c>
@@ -7463,12 +7535,12 @@
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
       <c r="Z29" s="35"/>
-      <c r="AA29" s="168"/>
-      <c r="AB29" s="169"/>
-      <c r="AC29" s="169"/>
-      <c r="AD29" s="170"/>
-    </row>
-    <row r="30" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA29" s="167"/>
+      <c r="AB29" s="130"/>
+      <c r="AC29" s="130"/>
+      <c r="AD29" s="131"/>
+    </row>
+    <row r="30" spans="1:30" ht="19.5" customHeight="1">
       <c r="A30" s="38" t="s">
         <v>5</v>
       </c>
@@ -7497,12 +7569,12 @@
       <c r="X30" s="33"/>
       <c r="Y30" s="33"/>
       <c r="Z30" s="33"/>
-      <c r="AA30" s="55"/>
-      <c r="AB30" s="55"/>
-      <c r="AC30" s="55"/>
-      <c r="AD30" s="79"/>
-    </row>
-    <row r="31" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="78"/>
+    </row>
+    <row r="31" spans="1:30" ht="19.5" customHeight="1">
       <c r="A31" s="27" t="s">
         <v>9</v>
       </c>
@@ -7531,12 +7603,12 @@
       <c r="X31" s="22"/>
       <c r="Y31" s="22"/>
       <c r="Z31" s="22"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="109"/>
-    </row>
-    <row r="32" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="108"/>
+    </row>
+    <row r="32" spans="1:30" ht="19.5" customHeight="1">
       <c r="A32" s="39" t="s">
         <v>54</v>
       </c>
@@ -7565,12 +7637,12 @@
       <c r="X32" s="35"/>
       <c r="Y32" s="35"/>
       <c r="Z32" s="35"/>
-      <c r="AA32" s="168"/>
-      <c r="AB32" s="169"/>
-      <c r="AC32" s="169"/>
-      <c r="AD32" s="170"/>
-    </row>
-    <row r="33" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA32" s="167"/>
+      <c r="AB32" s="130"/>
+      <c r="AC32" s="130"/>
+      <c r="AD32" s="131"/>
+    </row>
+    <row r="33" spans="1:30" ht="19.5" customHeight="1">
       <c r="A33" s="38" t="s">
         <v>6</v>
       </c>
@@ -7599,12 +7671,12 @@
       <c r="X33" s="33"/>
       <c r="Y33" s="33"/>
       <c r="Z33" s="33"/>
-      <c r="AA33" s="55"/>
-      <c r="AB33" s="55"/>
-      <c r="AC33" s="55"/>
-      <c r="AD33" s="79"/>
-    </row>
-    <row r="34" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="78"/>
+    </row>
+    <row r="34" spans="1:30" ht="19.5" customHeight="1">
       <c r="A34" s="27" t="s">
         <v>10</v>
       </c>
@@ -7633,12 +7705,12 @@
       <c r="X34" s="22"/>
       <c r="Y34" s="22"/>
       <c r="Z34" s="22"/>
-      <c r="AA34" s="56"/>
-      <c r="AB34" s="56"/>
-      <c r="AC34" s="56"/>
-      <c r="AD34" s="109"/>
-    </row>
-    <row r="35" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA34" s="55"/>
+      <c r="AB34" s="55"/>
+      <c r="AC34" s="55"/>
+      <c r="AD34" s="108"/>
+    </row>
+    <row r="35" spans="1:30" ht="19.5" customHeight="1">
       <c r="A35" s="39" t="s">
         <v>55</v>
       </c>
@@ -7667,14 +7739,14 @@
       <c r="X35" s="35"/>
       <c r="Y35" s="35"/>
       <c r="Z35" s="35"/>
-      <c r="AA35" s="151" t="s">
+      <c r="AA35" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB35" s="169"/>
-      <c r="AC35" s="169"/>
-      <c r="AD35" s="170"/>
-    </row>
-    <row r="36" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB35" s="130"/>
+      <c r="AC35" s="130"/>
+      <c r="AD35" s="131"/>
+    </row>
+    <row r="36" spans="1:30" ht="19.5" customHeight="1">
       <c r="A36" s="14"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -7706,7 +7778,7 @@
       <c r="AC36" s="22"/>
       <c r="AD36" s="23"/>
     </row>
-    <row r="37" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:30" ht="19.5" customHeight="1">
       <c r="A37" s="14"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -7738,7 +7810,7 @@
       <c r="AC37" s="22"/>
       <c r="AD37" s="23"/>
     </row>
-    <row r="38" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:30" ht="19.5" customHeight="1">
       <c r="A38" s="14"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -7770,7 +7842,7 @@
       <c r="AC38" s="22"/>
       <c r="AD38" s="23"/>
     </row>
-    <row r="39" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:30" ht="19.5" customHeight="1">
       <c r="A39" s="14"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -7802,7 +7874,7 @@
       <c r="AC39" s="22"/>
       <c r="AD39" s="23"/>
     </row>
-    <row r="40" spans="1:30" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="19.5" customHeight="1" thickBot="1">
       <c r="A40" s="24"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -7834,7 +7906,7 @@
       <c r="AC40" s="25"/>
       <c r="AD40" s="26"/>
     </row>
-    <row r="41" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:30" ht="12" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -7866,7 +7938,7 @@
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
     </row>
-    <row r="42" spans="1:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:30" ht="7.5" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -7898,22 +7970,22 @@
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
     </row>
-    <row r="43" spans="1:30" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:30" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="50" t="s">
+    <row r="43" spans="1:30" ht="4.5" customHeight="1"/>
+    <row r="44" spans="1:30" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A44" s="49" t="s">
         <v>11</v>
       </c>
       <c r="AA44" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="121" t="s">
+    <row r="45" spans="1:30" ht="30" customHeight="1">
+      <c r="A45" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="122"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="123"/>
+      <c r="B45" s="153"/>
+      <c r="C45" s="153"/>
+      <c r="D45" s="154"/>
       <c r="E45" s="4">
         <v>6</v>
       </c>
@@ -7931,129 +8003,129 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="10"/>
-      <c r="P45" s="124" t="s">
+      <c r="P45" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="Q45" s="125"/>
-      <c r="R45" s="125"/>
-      <c r="S45" s="125"/>
-      <c r="T45" s="125"/>
-      <c r="U45" s="126"/>
-      <c r="V45" s="127"/>
-      <c r="W45" s="127"/>
-      <c r="X45" s="127"/>
-      <c r="Y45" s="127"/>
-      <c r="Z45" s="127"/>
-      <c r="AA45" s="127"/>
-      <c r="AB45" s="127"/>
-      <c r="AC45" s="127"/>
-      <c r="AD45" s="128"/>
-    </row>
-    <row r="46" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="129" t="s">
+      <c r="Q45" s="156"/>
+      <c r="R45" s="156"/>
+      <c r="S45" s="156"/>
+      <c r="T45" s="156"/>
+      <c r="U45" s="157"/>
+      <c r="V45" s="158"/>
+      <c r="W45" s="158"/>
+      <c r="X45" s="158"/>
+      <c r="Y45" s="158"/>
+      <c r="Z45" s="158"/>
+      <c r="AA45" s="158"/>
+      <c r="AB45" s="158"/>
+      <c r="AC45" s="158"/>
+      <c r="AD45" s="159"/>
+    </row>
+    <row r="46" spans="1:30" ht="30" customHeight="1" thickBot="1">
+      <c r="A46" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="130"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="131"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="133"/>
-      <c r="L46" s="133"/>
-      <c r="M46" s="133"/>
-      <c r="N46" s="133"/>
-      <c r="O46" s="134"/>
-      <c r="P46" s="135" t="s">
+      <c r="B46" s="136"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
+      <c r="J46" s="143"/>
+      <c r="K46" s="143"/>
+      <c r="L46" s="143"/>
+      <c r="M46" s="143"/>
+      <c r="N46" s="143"/>
+      <c r="O46" s="144"/>
+      <c r="P46" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="Q46" s="136"/>
-      <c r="R46" s="136"/>
-      <c r="S46" s="136"/>
-      <c r="T46" s="136"/>
-      <c r="U46" s="137"/>
-      <c r="V46" s="133"/>
-      <c r="W46" s="133"/>
-      <c r="X46" s="133"/>
-      <c r="Y46" s="133"/>
-      <c r="Z46" s="133"/>
-      <c r="AA46" s="133"/>
-      <c r="AB46" s="133"/>
-      <c r="AC46" s="133"/>
-      <c r="AD46" s="138"/>
-    </row>
-    <row r="47" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="44" t="s">
+      <c r="Q46" s="146"/>
+      <c r="R46" s="146"/>
+      <c r="S46" s="146"/>
+      <c r="T46" s="146"/>
+      <c r="U46" s="147"/>
+      <c r="V46" s="143"/>
+      <c r="W46" s="143"/>
+      <c r="X46" s="143"/>
+      <c r="Y46" s="143"/>
+      <c r="Z46" s="143"/>
+      <c r="AA46" s="143"/>
+      <c r="AB46" s="143"/>
+      <c r="AC46" s="143"/>
+      <c r="AD46" s="148"/>
+    </row>
+    <row r="47" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A47" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="45"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="45"/>
-      <c r="Z47" s="45"/>
-      <c r="AA47" s="141" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
+      <c r="AA47" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="AB47" s="142"/>
-      <c r="AC47" s="142"/>
-      <c r="AD47" s="143"/>
-    </row>
-    <row r="48" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="46"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="47"/>
-      <c r="T48" s="47"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="47"/>
-      <c r="X48" s="47"/>
-      <c r="Y48" s="47"/>
-      <c r="Z48" s="47"/>
-      <c r="AA48" s="48"/>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="47"/>
-      <c r="AD48" s="49"/>
-    </row>
-    <row r="49" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB47" s="150"/>
+      <c r="AC47" s="150"/>
+      <c r="AD47" s="151"/>
+    </row>
+    <row r="48" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="46"/>
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="48"/>
+    </row>
+    <row r="49" spans="1:30" ht="20.25" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -8085,7 +8157,7 @@
       <c r="AC49" s="17"/>
       <c r="AD49" s="18"/>
     </row>
-    <row r="50" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:30" ht="20.25" customHeight="1">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -8117,7 +8189,7 @@
       <c r="AC50" s="17"/>
       <c r="AD50" s="18"/>
     </row>
-    <row r="51" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:30" ht="20.25" customHeight="1">
       <c r="A51" s="16"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -8149,7 +8221,7 @@
       <c r="AC51" s="17"/>
       <c r="AD51" s="18"/>
     </row>
-    <row r="52" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:30" ht="20.25" customHeight="1">
       <c r="A52" s="16"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -8181,7 +8253,7 @@
       <c r="AC52" s="17"/>
       <c r="AD52" s="18"/>
     </row>
-    <row r="53" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:30" ht="20.25" customHeight="1">
       <c r="A53" s="14"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -8213,8 +8285,8 @@
       <c r="AC53" s="22"/>
       <c r="AD53" s="23"/>
     </row>
-    <row r="54" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="57" t="s">
+    <row r="54" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A54" s="56" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="35"/>
@@ -8242,14 +8314,14 @@
       <c r="X54" s="35"/>
       <c r="Y54" s="35"/>
       <c r="Z54" s="35"/>
-      <c r="AA54" s="151" t="s">
+      <c r="AA54" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB54" s="169"/>
-      <c r="AC54" s="169"/>
-      <c r="AD54" s="170"/>
-    </row>
-    <row r="55" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB54" s="130"/>
+      <c r="AC54" s="130"/>
+      <c r="AD54" s="131"/>
+    </row>
+    <row r="55" spans="1:30" ht="20.25" customHeight="1">
       <c r="A55" s="27"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -8281,7 +8353,7 @@
       <c r="AC55" s="22"/>
       <c r="AD55" s="23"/>
     </row>
-    <row r="56" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:30" ht="20.25" customHeight="1">
       <c r="A56" s="14"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -8313,8 +8385,8 @@
       <c r="AC56" s="22"/>
       <c r="AD56" s="23"/>
     </row>
-    <row r="57" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="57" t="s">
+    <row r="57" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A57" s="56" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="35"/>
@@ -8342,14 +8414,14 @@
       <c r="X57" s="35"/>
       <c r="Y57" s="35"/>
       <c r="Z57" s="35"/>
-      <c r="AA57" s="151" t="s">
+      <c r="AA57" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB57" s="169"/>
-      <c r="AC57" s="169"/>
-      <c r="AD57" s="170"/>
-    </row>
-    <row r="58" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB57" s="130"/>
+      <c r="AC57" s="130"/>
+      <c r="AD57" s="131"/>
+    </row>
+    <row r="58" spans="1:30" ht="20.25" customHeight="1">
       <c r="A58" s="27"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -8381,7 +8453,7 @@
       <c r="AC58" s="22"/>
       <c r="AD58" s="23"/>
     </row>
-    <row r="59" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:30" ht="20.25" customHeight="1">
       <c r="A59" s="27"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -8413,7 +8485,7 @@
       <c r="AC59" s="22"/>
       <c r="AD59" s="23"/>
     </row>
-    <row r="60" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:30" ht="20.25" customHeight="1">
       <c r="A60" s="27"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -8445,7 +8517,7 @@
       <c r="AC60" s="22"/>
       <c r="AD60" s="23"/>
     </row>
-    <row r="61" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:30" ht="20.25" customHeight="1">
       <c r="A61" s="27"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -8477,7 +8549,7 @@
       <c r="AC61" s="22"/>
       <c r="AD61" s="23"/>
     </row>
-    <row r="62" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:30" ht="20.25" customHeight="1">
       <c r="A62" s="14"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -8509,7 +8581,7 @@
       <c r="AC62" s="22"/>
       <c r="AD62" s="23"/>
     </row>
-    <row r="63" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:30" ht="20.25" customHeight="1">
       <c r="A63" s="39" t="s">
         <v>59</v>
       </c>
@@ -8538,14 +8610,14 @@
       <c r="X63" s="35"/>
       <c r="Y63" s="35"/>
       <c r="Z63" s="35"/>
-      <c r="AA63" s="151" t="s">
+      <c r="AA63" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB63" s="169"/>
-      <c r="AC63" s="169"/>
-      <c r="AD63" s="170"/>
-    </row>
-    <row r="64" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB63" s="130"/>
+      <c r="AC63" s="130"/>
+      <c r="AD63" s="131"/>
+    </row>
+    <row r="64" spans="1:30" ht="20.25" customHeight="1">
       <c r="A64" s="27"/>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -8577,7 +8649,7 @@
       <c r="AC64" s="22"/>
       <c r="AD64" s="23"/>
     </row>
-    <row r="65" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:30" ht="20.25" customHeight="1">
       <c r="A65" s="16"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -8609,7 +8681,7 @@
       <c r="AC65" s="17"/>
       <c r="AD65" s="18"/>
     </row>
-    <row r="66" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:30" ht="20.25" customHeight="1">
       <c r="A66" s="16"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -8641,7 +8713,7 @@
       <c r="AC66" s="17"/>
       <c r="AD66" s="18"/>
     </row>
-    <row r="67" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:30" ht="20.25" customHeight="1">
       <c r="A67" s="16"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -8673,7 +8745,7 @@
       <c r="AC67" s="17"/>
       <c r="AD67" s="18"/>
     </row>
-    <row r="68" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:30" ht="20.25" customHeight="1">
       <c r="A68" s="16"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -8705,7 +8777,7 @@
       <c r="AC68" s="17"/>
       <c r="AD68" s="18"/>
     </row>
-    <row r="69" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:30" ht="20.25" customHeight="1">
       <c r="A69" s="14"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -8737,7 +8809,7 @@
       <c r="AC69" s="22"/>
       <c r="AD69" s="23"/>
     </row>
-    <row r="70" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:30" ht="20.25" customHeight="1">
       <c r="A70" s="39" t="s">
         <v>60</v>
       </c>
@@ -8766,14 +8838,14 @@
       <c r="X70" s="35"/>
       <c r="Y70" s="35"/>
       <c r="Z70" s="35"/>
-      <c r="AA70" s="151" t="s">
+      <c r="AA70" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB70" s="169"/>
-      <c r="AC70" s="169"/>
-      <c r="AD70" s="170"/>
-    </row>
-    <row r="71" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB70" s="130"/>
+      <c r="AC70" s="130"/>
+      <c r="AD70" s="131"/>
+    </row>
+    <row r="71" spans="1:30" ht="20.25" customHeight="1">
       <c r="A71" s="27"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -8805,7 +8877,7 @@
       <c r="AC71" s="22"/>
       <c r="AD71" s="23"/>
     </row>
-    <row r="72" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:30" ht="20.25" customHeight="1">
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -8837,7 +8909,7 @@
       <c r="AC72" s="17"/>
       <c r="AD72" s="18"/>
     </row>
-    <row r="73" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:30" ht="20.25" customHeight="1">
       <c r="A73" s="16"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -8869,7 +8941,7 @@
       <c r="AC73" s="17"/>
       <c r="AD73" s="18"/>
     </row>
-    <row r="74" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:30" ht="20.25" customHeight="1">
       <c r="A74" s="16"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -8901,7 +8973,7 @@
       <c r="AC74" s="17"/>
       <c r="AD74" s="18"/>
     </row>
-    <row r="75" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:30" ht="20.25" customHeight="1">
       <c r="A75" s="16"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -8933,43 +9005,43 @@
       <c r="AC75" s="17"/>
       <c r="AD75" s="18"/>
     </row>
-    <row r="76" spans="1:30" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="177" t="s">
+    <row r="76" spans="1:30" ht="39" customHeight="1">
+      <c r="A76" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="B76" s="178"/>
-      <c r="C76" s="178"/>
-      <c r="D76" s="178"/>
-      <c r="E76" s="178"/>
-      <c r="F76" s="178"/>
-      <c r="G76" s="178"/>
-      <c r="H76" s="178"/>
-      <c r="I76" s="178"/>
-      <c r="J76" s="178"/>
-      <c r="K76" s="178"/>
-      <c r="L76" s="178"/>
-      <c r="M76" s="178"/>
-      <c r="N76" s="178"/>
-      <c r="O76" s="178"/>
-      <c r="P76" s="178"/>
-      <c r="Q76" s="178"/>
-      <c r="R76" s="178"/>
-      <c r="S76" s="178"/>
-      <c r="T76" s="178"/>
-      <c r="U76" s="178"/>
-      <c r="V76" s="178"/>
-      <c r="W76" s="178"/>
-      <c r="X76" s="178"/>
-      <c r="Y76" s="178"/>
-      <c r="Z76" s="179"/>
-      <c r="AA76" s="151" t="s">
+      <c r="B76" s="133"/>
+      <c r="C76" s="133"/>
+      <c r="D76" s="133"/>
+      <c r="E76" s="133"/>
+      <c r="F76" s="133"/>
+      <c r="G76" s="133"/>
+      <c r="H76" s="133"/>
+      <c r="I76" s="133"/>
+      <c r="J76" s="133"/>
+      <c r="K76" s="133"/>
+      <c r="L76" s="133"/>
+      <c r="M76" s="133"/>
+      <c r="N76" s="133"/>
+      <c r="O76" s="133"/>
+      <c r="P76" s="133"/>
+      <c r="Q76" s="133"/>
+      <c r="R76" s="133"/>
+      <c r="S76" s="133"/>
+      <c r="T76" s="133"/>
+      <c r="U76" s="133"/>
+      <c r="V76" s="133"/>
+      <c r="W76" s="133"/>
+      <c r="X76" s="133"/>
+      <c r="Y76" s="133"/>
+      <c r="Z76" s="134"/>
+      <c r="AA76" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB76" s="169"/>
-      <c r="AC76" s="169"/>
-      <c r="AD76" s="170"/>
-    </row>
-    <row r="77" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB76" s="130"/>
+      <c r="AC76" s="130"/>
+      <c r="AD76" s="131"/>
+    </row>
+    <row r="77" spans="1:30" ht="20.25" customHeight="1">
       <c r="A77" s="16"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -9001,7 +9073,7 @@
       <c r="AC77" s="17"/>
       <c r="AD77" s="18"/>
     </row>
-    <row r="78" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:30" ht="20.25" customHeight="1">
       <c r="A78" s="16"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -9033,7 +9105,7 @@
       <c r="AC78" s="17"/>
       <c r="AD78" s="18"/>
     </row>
-    <row r="79" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:30" ht="20.25" customHeight="1">
       <c r="A79" s="14"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -9065,7 +9137,7 @@
       <c r="AC79" s="13"/>
       <c r="AD79" s="12"/>
     </row>
-    <row r="80" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:30" ht="20.25" customHeight="1">
       <c r="A80" s="14"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -9097,7 +9169,7 @@
       <c r="AC80" s="13"/>
       <c r="AD80" s="12"/>
     </row>
-    <row r="81" spans="1:30" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
       <c r="A81" s="19"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -9129,20 +9201,22 @@
       <c r="AC81" s="20"/>
       <c r="AD81" s="21"/>
     </row>
-    <row r="82" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:30" ht="16.5" customHeight="1">
       <c r="A82" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A3:AD3"/>
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="AA54:AD54"/>
-    <mergeCell ref="AA63:AD63"/>
-    <mergeCell ref="AA70:AD70"/>
-    <mergeCell ref="A24:AD24"/>
-    <mergeCell ref="AA29:AD29"/>
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="A9:Z9"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A76:Z76"/>
     <mergeCell ref="AA76:AD76"/>
     <mergeCell ref="AA35:AD35"/>
@@ -9154,6 +9228,15 @@
     <mergeCell ref="P46:U46"/>
     <mergeCell ref="V46:AD46"/>
     <mergeCell ref="AA57:AD57"/>
+    <mergeCell ref="A3:AD3"/>
+    <mergeCell ref="AA47:AD47"/>
+    <mergeCell ref="AA54:AD54"/>
+    <mergeCell ref="AA63:AD63"/>
+    <mergeCell ref="AA70:AD70"/>
+    <mergeCell ref="A24:AD24"/>
+    <mergeCell ref="AA29:AD29"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="A4:D4"/>
     <mergeCell ref="P4:U4"/>
     <mergeCell ref="V4:AD4"/>
     <mergeCell ref="A5:D5"/>
@@ -9161,17 +9244,6 @@
     <mergeCell ref="P5:U5"/>
     <mergeCell ref="V5:AD5"/>
     <mergeCell ref="AA10:AD10"/>
-    <mergeCell ref="A9:Z9"/>
-    <mergeCell ref="AA7:AD7"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y10:Z10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.27559055118110237" top="0.45" bottom="0.23622047244094491" header="0.19685039370078741" footer="0.15748031496062992"/>
@@ -9181,19 +9253,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD85"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="3.125" style="1"/>
+    <col min="1" max="13" width="3.1640625" style="1"/>
+    <col min="14" max="14" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="3.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" ht="1.5" customHeight="1">
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -9224,195 +9298,221 @@
       <c r="AC1" s="15"/>
       <c r="AD1" s="15"/>
     </row>
-    <row r="2" spans="1:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:30" ht="24.75" customHeight="1">
+      <c r="A2" s="49" t="s">
         <v>67</v>
       </c>
       <c r="AA2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="139" t="s">
+    <row r="3" spans="1:30" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A3" s="186" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="191"/>
-      <c r="U3" s="191"/>
-      <c r="V3" s="191"/>
-      <c r="W3" s="191"/>
-      <c r="X3" s="191"/>
-      <c r="Y3" s="191"/>
-      <c r="Z3" s="191"/>
-      <c r="AA3" s="191"/>
-      <c r="AB3" s="191"/>
-      <c r="AC3" s="191"/>
-      <c r="AD3" s="191"/>
-    </row>
-    <row r="4" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="121" t="s">
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="190"/>
+      <c r="V3" s="190"/>
+      <c r="W3" s="190"/>
+      <c r="X3" s="190"/>
+      <c r="Y3" s="190"/>
+      <c r="Z3" s="190"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="190"/>
+      <c r="AC3" s="190"/>
+      <c r="AD3" s="190"/>
+    </row>
+    <row r="4" spans="1:30" ht="30" customHeight="1">
+      <c r="A4" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="123"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="4">
         <v>6</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>7</v>
+      </c>
       <c r="H4" s="6">
         <v>0</v>
       </c>
       <c r="I4" s="5">
         <v>6</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="124" t="s">
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9">
+        <v>8</v>
+      </c>
+      <c r="O4" s="10">
+        <v>7</v>
+      </c>
+      <c r="P4" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="127"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="128"/>
-    </row>
-    <row r="5" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="129" t="s">
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="158" t="s">
+        <v>70</v>
+      </c>
+      <c r="W4" s="158"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
+      <c r="AC4" s="158"/>
+      <c r="AD4" s="159"/>
+    </row>
+    <row r="5" spans="1:30" ht="30" customHeight="1" thickBot="1">
+      <c r="A5" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="135" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="142" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="133"/>
-      <c r="AB5" s="133"/>
-      <c r="AC5" s="133"/>
-      <c r="AD5" s="138"/>
-    </row>
-    <row r="6" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44" t="s">
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="147"/>
+      <c r="V5" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="148"/>
+    </row>
+    <row r="6" spans="1:30" ht="19.5" customHeight="1">
+      <c r="A6" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="141" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="AB6" s="142"/>
-      <c r="AC6" s="142"/>
-      <c r="AD6" s="143"/>
-    </row>
-    <row r="7" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="34"/>
-    </row>
-    <row r="8" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB6" s="150"/>
+      <c r="AC6" s="150"/>
+      <c r="AD6" s="151"/>
+    </row>
+    <row r="7" spans="1:30" ht="19.5" customHeight="1">
+      <c r="A7" s="196" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="194"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="194"/>
+      <c r="O7" s="194"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="194"/>
+      <c r="R7" s="194"/>
+      <c r="S7" s="194"/>
+      <c r="T7" s="194"/>
+      <c r="U7" s="194"/>
+      <c r="V7" s="194"/>
+      <c r="W7" s="194"/>
+      <c r="X7" s="194"/>
+      <c r="Y7" s="194"/>
+      <c r="Z7" s="195"/>
+      <c r="AA7" s="191" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB7" s="192"/>
+      <c r="AC7" s="192"/>
+      <c r="AD7" s="193"/>
+    </row>
+    <row r="8" spans="1:30" ht="19.5" customHeight="1">
       <c r="A8" s="27"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -9444,7 +9544,7 @@
       <c r="AC8" s="22"/>
       <c r="AD8" s="23"/>
     </row>
-    <row r="9" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:30" ht="19.5" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -9476,7 +9576,7 @@
       <c r="AC9" s="22"/>
       <c r="AD9" s="23"/>
     </row>
-    <row r="10" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:30" ht="19.5" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -9508,7 +9608,7 @@
       <c r="AC10" s="22"/>
       <c r="AD10" s="23"/>
     </row>
-    <row r="11" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30" ht="19.5" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -9540,7 +9640,7 @@
       <c r="AC11" s="22"/>
       <c r="AD11" s="23"/>
     </row>
-    <row r="12" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30" ht="19.5" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -9572,7 +9672,7 @@
       <c r="AC12" s="22"/>
       <c r="AD12" s="23"/>
     </row>
-    <row r="13" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:30" ht="19.5" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -9604,7 +9704,7 @@
       <c r="AC13" s="22"/>
       <c r="AD13" s="23"/>
     </row>
-    <row r="14" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30" ht="19.5" customHeight="1">
       <c r="A14" s="14"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -9636,7 +9736,7 @@
       <c r="AC14" s="22"/>
       <c r="AD14" s="23"/>
     </row>
-    <row r="15" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30" ht="19.5" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -9668,7 +9768,7 @@
       <c r="AC15" s="22"/>
       <c r="AD15" s="23"/>
     </row>
-    <row r="16" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:30" ht="19.5" customHeight="1">
       <c r="A16" s="39" t="s">
         <v>53</v>
       </c>
@@ -9697,14 +9797,14 @@
       <c r="X16" s="35"/>
       <c r="Y16" s="35"/>
       <c r="Z16" s="35"/>
-      <c r="AA16" s="151" t="s">
+      <c r="AA16" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB16" s="169"/>
-      <c r="AC16" s="169"/>
-      <c r="AD16" s="170"/>
-    </row>
-    <row r="17" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB16" s="130"/>
+      <c r="AC16" s="130"/>
+      <c r="AD16" s="131"/>
+    </row>
+    <row r="17" spans="1:30" ht="19.5" customHeight="1">
       <c r="A17" s="38"/>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -9736,7 +9836,7 @@
       <c r="AC17" s="33"/>
       <c r="AD17" s="34"/>
     </row>
-    <row r="18" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:30" ht="19.5" customHeight="1">
       <c r="A18" s="27"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -9768,7 +9868,7 @@
       <c r="AC18" s="22"/>
       <c r="AD18" s="23"/>
     </row>
-    <row r="19" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:30" ht="19.5" customHeight="1">
       <c r="A19" s="27"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -9800,7 +9900,7 @@
       <c r="AC19" s="22"/>
       <c r="AD19" s="23"/>
     </row>
-    <row r="20" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:30" ht="19.5" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -9832,7 +9932,7 @@
       <c r="AC20" s="22"/>
       <c r="AD20" s="23"/>
     </row>
-    <row r="21" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:30" ht="19.5" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -9864,7 +9964,7 @@
       <c r="AC21" s="22"/>
       <c r="AD21" s="23"/>
     </row>
-    <row r="22" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:30" ht="19.5" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -9896,7 +9996,7 @@
       <c r="AC22" s="22"/>
       <c r="AD22" s="23"/>
     </row>
-    <row r="23" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:30" ht="19.5" customHeight="1">
       <c r="A23" s="39" t="s">
         <v>54</v>
       </c>
@@ -9925,14 +10025,14 @@
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
       <c r="Z23" s="35"/>
-      <c r="AA23" s="151" t="s">
+      <c r="AA23" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB23" s="169"/>
-      <c r="AC23" s="169"/>
-      <c r="AD23" s="170"/>
-    </row>
-    <row r="24" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB23" s="130"/>
+      <c r="AC23" s="130"/>
+      <c r="AD23" s="131"/>
+    </row>
+    <row r="24" spans="1:30" ht="19.5" customHeight="1">
       <c r="A24" s="38"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -9964,7 +10064,7 @@
       <c r="AC24" s="33"/>
       <c r="AD24" s="34"/>
     </row>
-    <row r="25" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:30" ht="19.5" customHeight="1">
       <c r="A25" s="27"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -9996,7 +10096,7 @@
       <c r="AC25" s="22"/>
       <c r="AD25" s="23"/>
     </row>
-    <row r="26" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:30" ht="19.5" customHeight="1">
       <c r="A26" s="27"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -10028,7 +10128,7 @@
       <c r="AC26" s="22"/>
       <c r="AD26" s="23"/>
     </row>
-    <row r="27" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:30" ht="19.5" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -10060,7 +10160,7 @@
       <c r="AC27" s="22"/>
       <c r="AD27" s="23"/>
     </row>
-    <row r="28" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:30" ht="19.5" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -10092,7 +10192,7 @@
       <c r="AC28" s="22"/>
       <c r="AD28" s="23"/>
     </row>
-    <row r="29" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:30" ht="19.5" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -10124,7 +10224,7 @@
       <c r="AC29" s="22"/>
       <c r="AD29" s="23"/>
     </row>
-    <row r="30" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:30" ht="19.5" customHeight="1">
       <c r="A30" s="39" t="s">
         <v>55</v>
       </c>
@@ -10153,14 +10253,14 @@
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
       <c r="Z30" s="35"/>
-      <c r="AA30" s="151" t="s">
+      <c r="AA30" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB30" s="169"/>
-      <c r="AC30" s="169"/>
-      <c r="AD30" s="170"/>
-    </row>
-    <row r="31" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB30" s="130"/>
+      <c r="AC30" s="130"/>
+      <c r="AD30" s="131"/>
+    </row>
+    <row r="31" spans="1:30" ht="19.5" customHeight="1">
       <c r="A31" s="27"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -10192,7 +10292,7 @@
       <c r="AC31" s="22"/>
       <c r="AD31" s="23"/>
     </row>
-    <row r="32" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:30" ht="19.5" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -10224,7 +10324,7 @@
       <c r="AC32" s="22"/>
       <c r="AD32" s="23"/>
     </row>
-    <row r="33" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:30" ht="19.5" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -10256,7 +10356,7 @@
       <c r="AC33" s="22"/>
       <c r="AD33" s="23"/>
     </row>
-    <row r="34" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:30" ht="19.5" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -10288,7 +10388,7 @@
       <c r="AC34" s="22"/>
       <c r="AD34" s="23"/>
     </row>
-    <row r="35" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:30" ht="19.5" customHeight="1">
       <c r="A35" s="14"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -10320,7 +10420,7 @@
       <c r="AC35" s="22"/>
       <c r="AD35" s="23"/>
     </row>
-    <row r="36" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:30" ht="19.5" customHeight="1">
       <c r="A36" s="14"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -10352,7 +10452,7 @@
       <c r="AC36" s="22"/>
       <c r="AD36" s="23"/>
     </row>
-    <row r="37" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:30" ht="19.5" customHeight="1">
       <c r="A37" s="39" t="s">
         <v>56</v>
       </c>
@@ -10381,14 +10481,14 @@
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
       <c r="Z37" s="35"/>
-      <c r="AA37" s="151" t="s">
+      <c r="AA37" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB37" s="169"/>
-      <c r="AC37" s="169"/>
-      <c r="AD37" s="170"/>
-    </row>
-    <row r="38" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB37" s="130"/>
+      <c r="AC37" s="130"/>
+      <c r="AD37" s="131"/>
+    </row>
+    <row r="38" spans="1:30" ht="19.5" customHeight="1">
       <c r="A38" s="14"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -10420,7 +10520,7 @@
       <c r="AC38" s="22"/>
       <c r="AD38" s="23"/>
     </row>
-    <row r="39" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:30" ht="19.5" customHeight="1">
       <c r="A39" s="14"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -10452,7 +10552,7 @@
       <c r="AC39" s="22"/>
       <c r="AD39" s="23"/>
     </row>
-    <row r="40" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:30" ht="19.5" customHeight="1">
       <c r="A40" s="14"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -10484,7 +10584,7 @@
       <c r="AC40" s="22"/>
       <c r="AD40" s="23"/>
     </row>
-    <row r="41" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:30" ht="19.5" customHeight="1">
       <c r="A41" s="14"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -10516,7 +10616,7 @@
       <c r="AC41" s="22"/>
       <c r="AD41" s="23"/>
     </row>
-    <row r="42" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:30" ht="19.5" customHeight="1">
       <c r="A42" s="14"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -10548,7 +10648,7 @@
       <c r="AC42" s="22"/>
       <c r="AD42" s="23"/>
     </row>
-    <row r="43" spans="1:30" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="19.5" customHeight="1" thickBot="1">
       <c r="A43" s="24"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -10580,7 +10680,7 @@
       <c r="AC43" s="25"/>
       <c r="AD43" s="26"/>
     </row>
-    <row r="44" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:30" ht="12" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -10612,7 +10712,7 @@
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
     </row>
-    <row r="45" spans="1:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:30" ht="7.5" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -10644,162 +10744,188 @@
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
     </row>
-    <row r="46" spans="1:30" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:30" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="50" t="s">
+    <row r="46" spans="1:30" ht="4.5" customHeight="1"/>
+    <row r="47" spans="1:30" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A47" s="49" t="s">
         <v>12</v>
       </c>
       <c r="AA47" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="121" t="s">
+    <row r="48" spans="1:30" ht="37.5" customHeight="1">
+      <c r="A48" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="122"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="123"/>
+      <c r="B48" s="153"/>
+      <c r="C48" s="153"/>
+      <c r="D48" s="154"/>
       <c r="E48" s="4">
         <v>6</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="5"/>
+      <c r="F48" s="7">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5">
+        <v>7</v>
+      </c>
       <c r="H48" s="6">
         <v>0</v>
       </c>
       <c r="I48" s="5">
         <v>6</v>
       </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="124" t="s">
+      <c r="J48" s="8">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9">
+        <v>1</v>
+      </c>
+      <c r="L48" s="9">
+        <v>1</v>
+      </c>
+      <c r="M48" s="9">
+        <v>1</v>
+      </c>
+      <c r="N48" s="9">
+        <v>8</v>
+      </c>
+      <c r="O48" s="10">
+        <v>7</v>
+      </c>
+      <c r="P48" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="125"/>
-      <c r="R48" s="125"/>
-      <c r="S48" s="125"/>
-      <c r="T48" s="125"/>
-      <c r="U48" s="126"/>
-      <c r="V48" s="127"/>
-      <c r="W48" s="127"/>
-      <c r="X48" s="127"/>
-      <c r="Y48" s="127"/>
-      <c r="Z48" s="127"/>
-      <c r="AA48" s="127"/>
-      <c r="AB48" s="127"/>
-      <c r="AC48" s="127"/>
-      <c r="AD48" s="128"/>
-    </row>
-    <row r="49" spans="1:30" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="129" t="s">
+      <c r="Q48" s="156"/>
+      <c r="R48" s="156"/>
+      <c r="S48" s="156"/>
+      <c r="T48" s="156"/>
+      <c r="U48" s="157"/>
+      <c r="V48" s="158" t="s">
+        <v>70</v>
+      </c>
+      <c r="W48" s="158"/>
+      <c r="X48" s="158"/>
+      <c r="Y48" s="158"/>
+      <c r="Z48" s="158"/>
+      <c r="AA48" s="158"/>
+      <c r="AB48" s="158"/>
+      <c r="AC48" s="158"/>
+      <c r="AD48" s="159"/>
+    </row>
+    <row r="49" spans="1:30" ht="37.5" customHeight="1" thickBot="1">
+      <c r="A49" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="130"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="131"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="133"/>
-      <c r="L49" s="133"/>
-      <c r="M49" s="133"/>
-      <c r="N49" s="133"/>
-      <c r="O49" s="134"/>
-      <c r="P49" s="135" t="s">
+      <c r="B49" s="136"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="142" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="143"/>
+      <c r="G49" s="143"/>
+      <c r="H49" s="143"/>
+      <c r="I49" s="143"/>
+      <c r="J49" s="143"/>
+      <c r="K49" s="143"/>
+      <c r="L49" s="143"/>
+      <c r="M49" s="143"/>
+      <c r="N49" s="143"/>
+      <c r="O49" s="144"/>
+      <c r="P49" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="Q49" s="136"/>
-      <c r="R49" s="136"/>
-      <c r="S49" s="136"/>
-      <c r="T49" s="136"/>
-      <c r="U49" s="137"/>
-      <c r="V49" s="133"/>
-      <c r="W49" s="133"/>
-      <c r="X49" s="133"/>
-      <c r="Y49" s="133"/>
-      <c r="Z49" s="133"/>
-      <c r="AA49" s="133"/>
-      <c r="AB49" s="133"/>
-      <c r="AC49" s="133"/>
-      <c r="AD49" s="138"/>
-    </row>
-    <row r="50" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="44" t="s">
+      <c r="Q49" s="146"/>
+      <c r="R49" s="146"/>
+      <c r="S49" s="146"/>
+      <c r="T49" s="146"/>
+      <c r="U49" s="147"/>
+      <c r="V49" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="W49" s="143"/>
+      <c r="X49" s="143"/>
+      <c r="Y49" s="143"/>
+      <c r="Z49" s="143"/>
+      <c r="AA49" s="143"/>
+      <c r="AB49" s="143"/>
+      <c r="AC49" s="143"/>
+      <c r="AD49" s="148"/>
+    </row>
+    <row r="50" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A50" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="45"/>
-      <c r="W50" s="45"/>
-      <c r="X50" s="45"/>
-      <c r="Y50" s="45"/>
-      <c r="Z50" s="45"/>
-      <c r="AA50" s="141" t="s">
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="AB50" s="142"/>
-      <c r="AC50" s="142"/>
-      <c r="AD50" s="143"/>
-    </row>
-    <row r="51" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="46"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="47"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="47"/>
-      <c r="T51" s="47"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
-      <c r="X51" s="47"/>
-      <c r="Y51" s="47"/>
-      <c r="Z51" s="47"/>
-      <c r="AA51" s="48"/>
-      <c r="AB51" s="47"/>
-      <c r="AC51" s="47"/>
-      <c r="AD51" s="49"/>
-    </row>
-    <row r="52" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB50" s="150"/>
+      <c r="AC50" s="150"/>
+      <c r="AD50" s="151"/>
+    </row>
+    <row r="51" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A51" s="181" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="182"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
+      <c r="E51" s="182"/>
+      <c r="F51" s="182"/>
+      <c r="G51" s="182"/>
+      <c r="H51" s="182"/>
+      <c r="I51" s="182"/>
+      <c r="J51" s="182"/>
+      <c r="K51" s="182"/>
+      <c r="L51" s="182"/>
+      <c r="M51" s="182"/>
+      <c r="N51" s="182"/>
+      <c r="O51" s="182"/>
+      <c r="P51" s="182"/>
+      <c r="Q51" s="182"/>
+      <c r="R51" s="182"/>
+      <c r="S51" s="182"/>
+      <c r="T51" s="182"/>
+      <c r="U51" s="182"/>
+      <c r="V51" s="182"/>
+      <c r="W51" s="182"/>
+      <c r="X51" s="182"/>
+      <c r="Y51" s="182"/>
+      <c r="Z51" s="199"/>
+      <c r="AA51" s="197" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB51" s="182"/>
+      <c r="AC51" s="182"/>
+      <c r="AD51" s="198"/>
+    </row>
+    <row r="52" spans="1:30" ht="20.25" customHeight="1">
       <c r="A52" s="16"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -10831,7 +10957,7 @@
       <c r="AC52" s="17"/>
       <c r="AD52" s="18"/>
     </row>
-    <row r="53" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:30" ht="20.25" customHeight="1">
       <c r="A53" s="16"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -10863,7 +10989,7 @@
       <c r="AC53" s="17"/>
       <c r="AD53" s="18"/>
     </row>
-    <row r="54" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:30" ht="20.25" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -10895,7 +11021,7 @@
       <c r="AC54" s="17"/>
       <c r="AD54" s="18"/>
     </row>
-    <row r="55" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:30" ht="20.25" customHeight="1">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -10927,7 +11053,7 @@
       <c r="AC55" s="17"/>
       <c r="AD55" s="18"/>
     </row>
-    <row r="56" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:30" ht="20.25" customHeight="1">
       <c r="A56" s="14"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -10959,7 +11085,7 @@
       <c r="AC56" s="22"/>
       <c r="AD56" s="23"/>
     </row>
-    <row r="57" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:30" ht="20.25" customHeight="1">
       <c r="A57" s="39" t="s">
         <v>63</v>
       </c>
@@ -10988,14 +11114,14 @@
       <c r="X57" s="35"/>
       <c r="Y57" s="35"/>
       <c r="Z57" s="35"/>
-      <c r="AA57" s="151" t="s">
+      <c r="AA57" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB57" s="169"/>
-      <c r="AC57" s="169"/>
-      <c r="AD57" s="170"/>
-    </row>
-    <row r="58" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB57" s="130"/>
+      <c r="AC57" s="130"/>
+      <c r="AD57" s="131"/>
+    </row>
+    <row r="58" spans="1:30" ht="20.25" customHeight="1">
       <c r="A58" s="27"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -11027,7 +11153,7 @@
       <c r="AC58" s="22"/>
       <c r="AD58" s="23"/>
     </row>
-    <row r="59" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:30" ht="20.25" customHeight="1">
       <c r="A59" s="16"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -11059,7 +11185,7 @@
       <c r="AC59" s="17"/>
       <c r="AD59" s="18"/>
     </row>
-    <row r="60" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:30" ht="20.25" customHeight="1">
       <c r="A60" s="16"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -11091,7 +11217,7 @@
       <c r="AC60" s="17"/>
       <c r="AD60" s="18"/>
     </row>
-    <row r="61" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:30" ht="20.25" customHeight="1">
       <c r="A61" s="16"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -11123,7 +11249,7 @@
       <c r="AC61" s="17"/>
       <c r="AD61" s="18"/>
     </row>
-    <row r="62" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:30" ht="20.25" customHeight="1">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -11155,7 +11281,7 @@
       <c r="AC62" s="17"/>
       <c r="AD62" s="18"/>
     </row>
-    <row r="63" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:30" ht="20.25" customHeight="1">
       <c r="A63" s="14"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -11187,7 +11313,7 @@
       <c r="AC63" s="22"/>
       <c r="AD63" s="23"/>
     </row>
-    <row r="64" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:30" ht="20.25" customHeight="1">
       <c r="A64" s="39" t="s">
         <v>59</v>
       </c>
@@ -11216,14 +11342,14 @@
       <c r="X64" s="35"/>
       <c r="Y64" s="35"/>
       <c r="Z64" s="35"/>
-      <c r="AA64" s="151" t="s">
+      <c r="AA64" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB64" s="169"/>
-      <c r="AC64" s="169"/>
-      <c r="AD64" s="170"/>
-    </row>
-    <row r="65" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB64" s="130"/>
+      <c r="AC64" s="130"/>
+      <c r="AD64" s="131"/>
+    </row>
+    <row r="65" spans="1:30" ht="20.25" customHeight="1">
       <c r="A65" s="27"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -11255,7 +11381,7 @@
       <c r="AC65" s="22"/>
       <c r="AD65" s="23"/>
     </row>
-    <row r="66" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:30" ht="20.25" customHeight="1">
       <c r="A66" s="16"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -11287,7 +11413,7 @@
       <c r="AC66" s="17"/>
       <c r="AD66" s="18"/>
     </row>
-    <row r="67" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:30" ht="20.25" customHeight="1">
       <c r="A67" s="16"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -11319,7 +11445,7 @@
       <c r="AC67" s="17"/>
       <c r="AD67" s="18"/>
     </row>
-    <row r="68" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:30" ht="20.25" customHeight="1">
       <c r="A68" s="16"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -11351,7 +11477,7 @@
       <c r="AC68" s="17"/>
       <c r="AD68" s="18"/>
     </row>
-    <row r="69" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:30" ht="20.25" customHeight="1">
       <c r="A69" s="16"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -11383,7 +11509,7 @@
       <c r="AC69" s="17"/>
       <c r="AD69" s="18"/>
     </row>
-    <row r="70" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:30" ht="20.25" customHeight="1">
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -11415,7 +11541,7 @@
       <c r="AC70" s="17"/>
       <c r="AD70" s="18"/>
     </row>
-    <row r="71" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:30" ht="20.25" customHeight="1">
       <c r="A71" s="39" t="s">
         <v>60</v>
       </c>
@@ -11444,14 +11570,14 @@
       <c r="X71" s="35"/>
       <c r="Y71" s="35"/>
       <c r="Z71" s="35"/>
-      <c r="AA71" s="151" t="s">
+      <c r="AA71" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB71" s="169"/>
-      <c r="AC71" s="169"/>
-      <c r="AD71" s="170"/>
-    </row>
-    <row r="72" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB71" s="130"/>
+      <c r="AC71" s="130"/>
+      <c r="AD71" s="131"/>
+    </row>
+    <row r="72" spans="1:30" ht="20.25" customHeight="1">
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -11483,7 +11609,7 @@
       <c r="AC72" s="17"/>
       <c r="AD72" s="18"/>
     </row>
-    <row r="73" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:30" ht="20.25" customHeight="1">
       <c r="A73" s="16"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -11515,7 +11641,7 @@
       <c r="AC73" s="17"/>
       <c r="AD73" s="18"/>
     </row>
-    <row r="74" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:30" ht="20.25" customHeight="1">
       <c r="A74" s="16"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -11547,7 +11673,7 @@
       <c r="AC74" s="17"/>
       <c r="AD74" s="18"/>
     </row>
-    <row r="75" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:30" ht="20.25" customHeight="1">
       <c r="A75" s="16"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -11579,7 +11705,7 @@
       <c r="AC75" s="17"/>
       <c r="AD75" s="18"/>
     </row>
-    <row r="76" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:30" ht="20.25" customHeight="1">
       <c r="A76" s="16"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -11611,7 +11737,7 @@
       <c r="AC76" s="17"/>
       <c r="AD76" s="18"/>
     </row>
-    <row r="77" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:30" ht="20.25" customHeight="1">
       <c r="A77" s="16"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -11643,43 +11769,43 @@
       <c r="AC77" s="17"/>
       <c r="AD77" s="18"/>
     </row>
-    <row r="78" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="177" t="s">
+    <row r="78" spans="1:30" ht="36" customHeight="1">
+      <c r="A78" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="178"/>
-      <c r="C78" s="178"/>
-      <c r="D78" s="178"/>
-      <c r="E78" s="178"/>
-      <c r="F78" s="178"/>
-      <c r="G78" s="178"/>
-      <c r="H78" s="178"/>
-      <c r="I78" s="178"/>
-      <c r="J78" s="178"/>
-      <c r="K78" s="178"/>
-      <c r="L78" s="178"/>
-      <c r="M78" s="178"/>
-      <c r="N78" s="178"/>
-      <c r="O78" s="178"/>
-      <c r="P78" s="178"/>
-      <c r="Q78" s="178"/>
-      <c r="R78" s="178"/>
-      <c r="S78" s="178"/>
-      <c r="T78" s="178"/>
-      <c r="U78" s="178"/>
-      <c r="V78" s="178"/>
-      <c r="W78" s="178"/>
-      <c r="X78" s="178"/>
-      <c r="Y78" s="178"/>
-      <c r="Z78" s="179"/>
-      <c r="AA78" s="151" t="s">
+      <c r="B78" s="133"/>
+      <c r="C78" s="133"/>
+      <c r="D78" s="133"/>
+      <c r="E78" s="133"/>
+      <c r="F78" s="133"/>
+      <c r="G78" s="133"/>
+      <c r="H78" s="133"/>
+      <c r="I78" s="133"/>
+      <c r="J78" s="133"/>
+      <c r="K78" s="133"/>
+      <c r="L78" s="133"/>
+      <c r="M78" s="133"/>
+      <c r="N78" s="133"/>
+      <c r="O78" s="133"/>
+      <c r="P78" s="133"/>
+      <c r="Q78" s="133"/>
+      <c r="R78" s="133"/>
+      <c r="S78" s="133"/>
+      <c r="T78" s="133"/>
+      <c r="U78" s="133"/>
+      <c r="V78" s="133"/>
+      <c r="W78" s="133"/>
+      <c r="X78" s="133"/>
+      <c r="Y78" s="133"/>
+      <c r="Z78" s="134"/>
+      <c r="AA78" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AB78" s="169"/>
-      <c r="AC78" s="169"/>
-      <c r="AD78" s="170"/>
-    </row>
-    <row r="79" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB78" s="130"/>
+      <c r="AC78" s="130"/>
+      <c r="AD78" s="131"/>
+    </row>
+    <row r="79" spans="1:30" ht="20.25" customHeight="1">
       <c r="A79" s="16"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -11711,7 +11837,7 @@
       <c r="AC79" s="17"/>
       <c r="AD79" s="18"/>
     </row>
-    <row r="80" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:30" ht="20.25" customHeight="1">
       <c r="A80" s="16"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -11743,7 +11869,7 @@
       <c r="AC80" s="17"/>
       <c r="AD80" s="18"/>
     </row>
-    <row r="81" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:30" ht="20.25" customHeight="1">
       <c r="A81" s="16"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -11775,7 +11901,7 @@
       <c r="AC81" s="17"/>
       <c r="AD81" s="18"/>
     </row>
-    <row r="82" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:30" ht="20.25" customHeight="1">
       <c r="A82" s="14"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -11807,7 +11933,7 @@
       <c r="AC82" s="13"/>
       <c r="AD82" s="12"/>
     </row>
-    <row r="83" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:30" ht="20.25" customHeight="1">
       <c r="A83" s="14"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -11839,7 +11965,7 @@
       <c r="AC83" s="13"/>
       <c r="AD83" s="12"/>
     </row>
-    <row r="84" spans="1:30" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" ht="20.25" customHeight="1" thickBot="1">
       <c r="A84" s="19"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
@@ -11871,7 +11997,7 @@
       <c r="AC84" s="20"/>
       <c r="AD84" s="21"/>
     </row>
-    <row r="85" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:30" ht="16.5" customHeight="1">
       <c r="A85" s="3"/>
     </row>
   </sheetData>
@@ -11887,7 +12013,21 @@
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="26">
+  <mergeCells count="30">
+    <mergeCell ref="AA51:AD51"/>
+    <mergeCell ref="A51:Z51"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AD5"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="P49:U49"/>
+    <mergeCell ref="V49:AD49"/>
+    <mergeCell ref="AA23:AD23"/>
+    <mergeCell ref="AA30:AD30"/>
+    <mergeCell ref="P48:U48"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="A7:Z7"/>
     <mergeCell ref="A3:AD3"/>
     <mergeCell ref="A78:Z78"/>
     <mergeCell ref="AA78:AD78"/>
@@ -11904,16 +12044,6 @@
     <mergeCell ref="V4:AD4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:O5"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="V5:AD5"/>
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="AA16:AD16"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="P49:U49"/>
-    <mergeCell ref="V49:AD49"/>
-    <mergeCell ref="AA23:AD23"/>
-    <mergeCell ref="AA30:AD30"/>
-    <mergeCell ref="P48:U48"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.27559055118110237" top="0.45" bottom="0.23622047244094491" header="0.19685039370078741" footer="0.15748031496062992"/>
